--- a/time0.xlsx
+++ b/time0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D329"/>
+  <dimension ref="A1:D377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.527101318773655</v>
+        <v>1.736121769449888</v>
       </c>
       <c r="C2" t="n">
-        <v>2.637442861803855</v>
+        <v>1.785321883920809</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1103415430301995</v>
+        <v>-0.04920011447092043</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.546955344756371</v>
+        <v>1.741076829419324</v>
       </c>
       <c r="C3" t="n">
-        <v>2.595582872416684</v>
+        <v>1.855692714661332</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.04862752766031297</v>
+        <v>-0.1146158852420081</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.561026785768917</v>
+        <v>1.78697994665056</v>
       </c>
       <c r="C4" t="n">
-        <v>2.620602633315315</v>
+        <v>1.795071435981213</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.05957584754639766</v>
+        <v>-0.008091489330652735</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.619987968208461</v>
+        <v>1.788296113250684</v>
       </c>
       <c r="C5" t="n">
-        <v>2.707383358064243</v>
+        <v>1.802045333908982</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.08739538985578221</v>
+        <v>-0.01374922065829765</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.625990124546563</v>
+        <v>1.841254935963969</v>
       </c>
       <c r="C6" t="n">
-        <v>2.677312244196535</v>
+        <v>1.866048164578911</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.05132211964997158</v>
+        <v>-0.02479322861494215</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.627561031111977</v>
+        <v>2.609239102725638</v>
       </c>
       <c r="C7" t="n">
-        <v>2.699923092205891</v>
+        <v>2.661744232200538</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.07236206109391397</v>
+        <v>-0.0525051294749006</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.644626596487287</v>
+        <v>2.612191833098356</v>
       </c>
       <c r="C8" t="n">
-        <v>2.697606416596599</v>
+        <v>2.733012776086649</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.05297982010931213</v>
+        <v>-0.1208209429882934</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.655161076905542</v>
+        <v>2.613752437523362</v>
       </c>
       <c r="C9" t="n">
-        <v>2.709295812826143</v>
+        <v>2.696141525406118</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0541347359206017</v>
+        <v>-0.08238908788275578</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.690134054946504</v>
+        <v>2.623769164911257</v>
       </c>
       <c r="C10" t="n">
-        <v>2.728106055770391</v>
+        <v>2.643364221017513</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.03797200082388752</v>
+        <v>-0.01959505610625634</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.699277367018881</v>
+        <v>2.637474349867517</v>
       </c>
       <c r="C11" t="n">
-        <v>2.707601303221936</v>
+        <v>2.770409772926403</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.008323936203055382</v>
+        <v>-0.1329354230588859</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.70130634803339</v>
+        <v>2.641102849381666</v>
       </c>
       <c r="C12" t="n">
-        <v>2.705684484348546</v>
+        <v>2.671967909858751</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.004378136315156045</v>
+        <v>-0.03086506047708415</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.021196813043992</v>
+        <v>2.641577089547261</v>
       </c>
       <c r="C13" t="n">
-        <v>2.589946264324944</v>
+        <v>2.685821017074296</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4312505487190474</v>
+        <v>-0.04424392752703499</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.158227951932731</v>
+        <v>2.649812202066214</v>
       </c>
       <c r="C14" t="n">
-        <v>3.158401803509284</v>
+        <v>2.710927025624749</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0001738515765530302</v>
+        <v>-0.06111482355853459</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.169238891737946</v>
+        <v>2.666770568280877</v>
       </c>
       <c r="C15" t="n">
-        <v>3.225260749843016</v>
+        <v>2.735377123855953</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05602185810506999</v>
+        <v>-0.06860655557507611</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.190993701575204</v>
+        <v>2.685504276382924</v>
       </c>
       <c r="C16" t="n">
-        <v>3.30580940922164</v>
+        <v>2.732485915517576</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1148157076464353</v>
+        <v>-0.04698163913465159</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.192397329799526</v>
+        <v>2.716536614101855</v>
       </c>
       <c r="C17" t="n">
-        <v>3.287428477211994</v>
+        <v>2.725037373403886</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.09503114741246765</v>
+        <v>-0.008500759302030314</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.208115544218611</v>
+        <v>2.721421154481148</v>
       </c>
       <c r="C18" t="n">
-        <v>3.260754752605163</v>
+        <v>2.764055142189999</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.05263920838655212</v>
+        <v>-0.04263398770885107</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.227728985613072</v>
+        <v>2.72735579565832</v>
       </c>
       <c r="C19" t="n">
-        <v>3.322483651142107</v>
+        <v>2.764051338805897</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.094754665529035</v>
+        <v>-0.03669554314757706</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.25958689679377</v>
+        <v>2.734990786821272</v>
       </c>
       <c r="C20" t="n">
-        <v>3.289556910577336</v>
+        <v>2.761059773730385</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.02997001378356545</v>
+        <v>-0.02606898690911263</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.272283217114058</v>
+        <v>2.748012248095089</v>
       </c>
       <c r="C21" t="n">
-        <v>3.298297191067377</v>
+        <v>2.755271201188166</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.02601397395331873</v>
+        <v>-0.00725895309307667</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.276602654645827</v>
+        <v>6.997560804818865</v>
       </c>
       <c r="C22" t="n">
-        <v>3.360976718510815</v>
+        <v>7.094221908229515</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.08437406386498791</v>
+        <v>-0.09666110341064993</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.315625103570757</v>
+        <v>7.030127085760598</v>
       </c>
       <c r="C23" t="n">
-        <v>3.36689413835563</v>
+        <v>7.167380822837433</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.05126903478487277</v>
+        <v>-0.1372537370768354</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.339685641701395</v>
+        <v>7.040563393411221</v>
       </c>
       <c r="C24" t="n">
-        <v>3.342126319907027</v>
+        <v>7.146796244914202</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.00244067820563254</v>
+        <v>-0.1062328515029813</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.365156225788468</v>
+        <v>7.041282202434871</v>
       </c>
       <c r="C25" t="n">
-        <v>3.354789252297101</v>
+        <v>7.043494135263502</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01036697349136695</v>
+        <v>-0.002211932828630303</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.941323202458317</v>
+        <v>7.04657001522953</v>
       </c>
       <c r="C26" t="n">
-        <v>3.314426711830571</v>
+        <v>7.146149132232027</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6268964906277463</v>
+        <v>-0.09957911700249689</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10.52551370871237</v>
+        <v>7.048582466366453</v>
       </c>
       <c r="C27" t="n">
-        <v>10.66867114248308</v>
+        <v>7.086035306957282</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1431574337707122</v>
+        <v>-0.03745284059082898</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10.53216583659455</v>
+        <v>7.083656397504081</v>
       </c>
       <c r="C28" t="n">
-        <v>10.69614241802037</v>
+        <v>7.128411010750882</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1639765814258247</v>
+        <v>-0.04475461324680108</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>10.5344789910152</v>
+        <v>7.110399817389525</v>
       </c>
       <c r="C29" t="n">
-        <v>10.5389881557693</v>
+        <v>7.118614431334896</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.004509164754102457</v>
+        <v>-0.008214613945370708</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>10.55072841641456</v>
+        <v>7.142769597470095</v>
       </c>
       <c r="C30" t="n">
-        <v>10.55251397404683</v>
+        <v>7.169161617860628</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.001785557632263846</v>
+        <v>-0.02639202039053323</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>10.56385829889829</v>
+        <v>7.152976425645085</v>
       </c>
       <c r="C31" t="n">
-        <v>10.65503196185484</v>
+        <v>7.159746856425596</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.09117366295654961</v>
+        <v>-0.006770430780511205</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>10.57287570901685</v>
+        <v>7.156971267308026</v>
       </c>
       <c r="C32" t="n">
-        <v>10.61897491371675</v>
+        <v>7.16063292307147</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.04609920469989781</v>
+        <v>-0.003661655763443683</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>10.58383044112893</v>
+        <v>12.03599109472344</v>
       </c>
       <c r="C33" t="n">
-        <v>10.68471189726059</v>
+        <v>12.08923207022615</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1008814561316598</v>
+        <v>-0.05324097550271745</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>10.58906441616431</v>
+        <v>12.03683624031821</v>
       </c>
       <c r="C34" t="n">
-        <v>10.67815961450735</v>
+        <v>12.09113107814493</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.08909519834303481</v>
+        <v>-0.05429483782672051</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>10.59136330145116</v>
+        <v>12.0543901207535</v>
       </c>
       <c r="C35" t="n">
-        <v>10.63334875708217</v>
+        <v>12.1567265798135</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.04198545563101241</v>
+        <v>-0.1023364590600053</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>10.60055246648265</v>
+        <v>12.09070758974551</v>
       </c>
       <c r="C36" t="n">
-        <v>10.61134864888428</v>
+        <v>12.11500130638398</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.01079618240163249</v>
+        <v>-0.0242937166384678</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>10.62815148990306</v>
+        <v>12.14057826659035</v>
       </c>
       <c r="C37" t="n">
-        <v>10.67324286076151</v>
+        <v>12.15096188286663</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.04509137085845083</v>
+        <v>-0.01038361627628248</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>10.66357265791755</v>
+        <v>14.61582743789657</v>
       </c>
       <c r="C38" t="n">
-        <v>10.7014469546304</v>
+        <v>14.69905089700793</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.03787429671285381</v>
+        <v>-0.08322345911135898</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>10.72617457164286</v>
+        <v>14.61800850914177</v>
       </c>
       <c r="C39" t="n">
-        <v>10.73007052296643</v>
+        <v>14.73712918035696</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.003895951323565683</v>
+        <v>-0.119120671215196</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>10.80579987433746</v>
+        <v>14.62256391365744</v>
       </c>
       <c r="C40" t="n">
-        <v>10.68722163593891</v>
+        <v>14.66043973954143</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1185782383985519</v>
+        <v>-0.03787582588399374</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>10.84681552223489</v>
+        <v>14.6921863375777</v>
       </c>
       <c r="C41" t="n">
-        <v>10.67175379333236</v>
+        <v>14.73422811497307</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1750617289025289</v>
+        <v>-0.04204177739536163</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.27397354047047</v>
+        <v>14.72973726104957</v>
       </c>
       <c r="C42" t="n">
-        <v>11.41709346426751</v>
+        <v>14.73890234851571</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1431199237970375</v>
+        <v>-0.009165087466136868</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.2756946898995</v>
+        <v>14.73698352884877</v>
       </c>
       <c r="C43" t="n">
-        <v>11.36334911896335</v>
+        <v>14.74416691081674</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.08765442906384457</v>
+        <v>-0.007183381967967861</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.28429996050165</v>
+        <v>14.73848126250996</v>
       </c>
       <c r="C44" t="n">
-        <v>11.37807275065063</v>
+        <v>14.75072643917082</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.09377279014898043</v>
+        <v>-0.012245176660862</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.3002377149753</v>
+        <v>14.74905536693105</v>
       </c>
       <c r="C45" t="n">
-        <v>11.3473965905</v>
+        <v>14.75873930048186</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.04715887552470122</v>
+        <v>-0.009683933550807211</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.32116778867698</v>
+        <v>21.53967478632899</v>
       </c>
       <c r="C46" t="n">
-        <v>11.44632636906401</v>
+        <v>21.66271836177907</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1251585803870299</v>
+        <v>-0.1230435754500867</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.38894484582043</v>
+        <v>21.55164450680912</v>
       </c>
       <c r="C47" t="n">
-        <v>11.41170551758927</v>
+        <v>21.57886866879861</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.02276067176883423</v>
+        <v>-0.02722416198949063</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.40707566757082</v>
+        <v>21.55661937203427</v>
       </c>
       <c r="C48" t="n">
-        <v>11.47082624266048</v>
+        <v>21.66996476944211</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.06375057508965654</v>
+        <v>-0.1133453974078407</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.41757912075369</v>
+        <v>21.57270026272947</v>
       </c>
       <c r="C49" t="n">
-        <v>11.45044977948401</v>
+        <v>21.584525175244</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.03287065873032446</v>
+        <v>-0.01182491251453044</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.63479151027687</v>
+        <v>21.57466466152829</v>
       </c>
       <c r="C50" t="n">
-        <v>13.69120463748009</v>
+        <v>21.6848342915743</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.05641312720321601</v>
+        <v>-0.1101696300460127</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.69091169509419</v>
+        <v>21.61173092904826</v>
       </c>
       <c r="C51" t="n">
-        <v>13.75261013711982</v>
+        <v>21.68931841310569</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.06169844202562835</v>
+        <v>-0.07758748405742466</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.69982544121433</v>
+        <v>21.62100609618093</v>
       </c>
       <c r="C52" t="n">
-        <v>13.7074771464116</v>
+        <v>21.62760552266777</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.007651705197265102</v>
+        <v>-0.00659942648684364</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.71066338103608</v>
+        <v>21.62835954170275</v>
       </c>
       <c r="C53" t="n">
-        <v>13.81368572009945</v>
+        <v>21.64947543305961</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.1030223390633687</v>
+        <v>-0.02111589135685676</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13.71140830369495</v>
+        <v>21.64562592789653</v>
       </c>
       <c r="C54" t="n">
-        <v>13.80753538823951</v>
+        <v>21.66420433715727</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.09612708454456076</v>
+        <v>-0.01857840926074417</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13.73063376595742</v>
+        <v>21.65975459040904</v>
       </c>
       <c r="C55" t="n">
-        <v>13.80025848434672</v>
+        <v>21.66673214166392</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.06962471838929751</v>
+        <v>-0.00697755125488797</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13.74776277300038</v>
+        <v>21.67619544660694</v>
       </c>
       <c r="C56" t="n">
-        <v>13.81208211852957</v>
+        <v>21.57836551675289</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.06431934552918861</v>
+        <v>0.09782992985405414</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13.75165502487991</v>
+        <v>21.68642128141905</v>
       </c>
       <c r="C57" t="n">
-        <v>13.83694998914489</v>
+        <v>21.68972513462043</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.08529496426498184</v>
+        <v>-0.003303853201376938</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13.76406512214698</v>
+        <v>22.0460949133715</v>
       </c>
       <c r="C58" t="n">
-        <v>13.80073631492263</v>
+        <v>22.06199329176794</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.03667119277564979</v>
+        <v>-0.01589837839643948</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13.79902041603087</v>
+        <v>22.05967451731378</v>
       </c>
       <c r="C59" t="n">
-        <v>13.81713096596832</v>
+        <v>22.11264782727008</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01811054993745032</v>
+        <v>-0.05297330995629679</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13.80674182748422</v>
+        <v>22.07238527793851</v>
       </c>
       <c r="C60" t="n">
-        <v>14.00620319911794</v>
+        <v>22.0769842008712</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.1994613716337224</v>
+        <v>-0.004598922932693483</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13.81208826466713</v>
+        <v>22.10303013118489</v>
       </c>
       <c r="C61" t="n">
-        <v>13.81776175286766</v>
+        <v>22.14211336891077</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.005673488200530485</v>
+        <v>-0.03908323772587963</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13.81292750016097</v>
+        <v>22.11233558353434</v>
       </c>
       <c r="C62" t="n">
-        <v>13.82150730937325</v>
+        <v>22.15652980224496</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.008579809212276857</v>
+        <v>-0.04419421871062923</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13.82513205102875</v>
+        <v>22.11622313558161</v>
       </c>
       <c r="C63" t="n">
-        <v>13.97478707872122</v>
+        <v>22.15251250380078</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.1496550276924697</v>
+        <v>-0.03628936821916184</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>13.85075693868946</v>
+        <v>22.1213649596311</v>
       </c>
       <c r="C64" t="n">
-        <v>13.99077363599258</v>
+        <v>22.19181470113636</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.1400166973031194</v>
+        <v>-0.07044974150526429</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13.88417483183025</v>
+        <v>22.12642842980381</v>
       </c>
       <c r="C65" t="n">
-        <v>13.77885584327684</v>
+        <v>22.16243067279125</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1053189885534103</v>
+        <v>-0.03600224298743981</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13.905858444144</v>
+        <v>22.16313282785474</v>
       </c>
       <c r="C66" t="n">
-        <v>13.98164951765899</v>
+        <v>22.18527660146021</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.07579107351499204</v>
+        <v>-0.02214377360546749</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13.93016576665124</v>
+        <v>22.164084509656</v>
       </c>
       <c r="C67" t="n">
-        <v>13.96440960689042</v>
+        <v>22.17324771485599</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.03424384023918314</v>
+        <v>-0.00916320519999303</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13.93248363116703</v>
+        <v>22.22134507681975</v>
       </c>
       <c r="C68" t="n">
-        <v>13.9503936232458</v>
+        <v>22.1101482052553</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01790999207877597</v>
+        <v>0.1111968715644558</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>13.95559577219964</v>
+        <v>22.41026125887586</v>
       </c>
       <c r="C69" t="n">
-        <v>13.97344120543475</v>
+        <v>22.44357968873667</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01784543323511123</v>
+        <v>-0.03331842986080957</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>19.14790463009384</v>
+        <v>22.415272034941</v>
       </c>
       <c r="C70" t="n">
-        <v>19.27239510999198</v>
+        <v>22.51484425715023</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.1244904798981352</v>
+        <v>-0.09957222220922901</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>19.16286694082578</v>
+        <v>22.42494992275851</v>
       </c>
       <c r="C71" t="n">
-        <v>19.28750827370431</v>
+        <v>22.54998094222018</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.1246413328785323</v>
+        <v>-0.1250310194616659</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>19.17320660975628</v>
+        <v>22.43616780442412</v>
       </c>
       <c r="C72" t="n">
-        <v>19.29673986710008</v>
+        <v>22.48867138530074</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.1235332573438015</v>
+        <v>-0.05250358087662477</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>19.18421185848074</v>
+        <v>22.43733789614787</v>
       </c>
       <c r="C73" t="n">
-        <v>19.25611592826315</v>
+        <v>22.54653538120229</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.07190406978240915</v>
+        <v>-0.1091974850544233</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>19.18556214871975</v>
+        <v>22.43764421525901</v>
       </c>
       <c r="C74" t="n">
-        <v>19.19644916925149</v>
+        <v>22.45659482536688</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01088702053173662</v>
+        <v>-0.01895061010786492</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>19.20130064567631</v>
+        <v>22.43810923256341</v>
       </c>
       <c r="C75" t="n">
-        <v>19.32633308029162</v>
+        <v>22.49581408802111</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.12503243461531</v>
+        <v>-0.05770485545770399</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>19.22044542264235</v>
+        <v>22.44475641412999</v>
       </c>
       <c r="C76" t="n">
-        <v>19.29550898275164</v>
+        <v>22.56955888589892</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.07506356010928883</v>
+        <v>-0.1248024717689304</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>19.24551872048013</v>
+        <v>22.45349953009835</v>
       </c>
       <c r="C77" t="n">
-        <v>19.29381027716892</v>
+        <v>22.51699545842015</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.04829155668879181</v>
+        <v>-0.06349592832180662</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>19.25096971237213</v>
+        <v>22.4553772545948</v>
       </c>
       <c r="C78" t="n">
-        <v>19.27470673509435</v>
+        <v>22.48147413720245</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.02373702272222289</v>
+        <v>-0.02609688260765353</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>19.28956488204552</v>
+        <v>22.46703637525006</v>
       </c>
       <c r="C79" t="n">
-        <v>19.33481979161152</v>
+        <v>22.55395920102318</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.04525490956600109</v>
+        <v>-0.08692282577311516</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>19.29232608082711</v>
+        <v>22.4708308370567</v>
       </c>
       <c r="C80" t="n">
-        <v>19.31747911369082</v>
+        <v>22.47456876885634</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.02515303286370596</v>
+        <v>-0.003737931799648209</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>19.83892949606165</v>
+        <v>22.47942909118693</v>
       </c>
       <c r="C81" t="n">
-        <v>20.04203795955818</v>
+        <v>22.50902819574528</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.2031084634965339</v>
+        <v>-0.02959910455834702</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>19.85545508944091</v>
+        <v>22.52477383876233</v>
       </c>
       <c r="C82" t="n">
-        <v>19.97705950874211</v>
+        <v>22.53934739972429</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.1216044193011925</v>
+        <v>-0.01457356096195639</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>19.9084181668029</v>
+        <v>22.53690437942086</v>
       </c>
       <c r="C83" t="n">
-        <v>20.02855779351034</v>
+        <v>22.53929683308998</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.1201396267074344</v>
+        <v>-0.00239245366911689</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>19.92885011702766</v>
+        <v>23.53806344276229</v>
       </c>
       <c r="C84" t="n">
-        <v>20.0073036003656</v>
+        <v>23.62893861797167</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.07845348333793112</v>
+        <v>-0.09087517520938704</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>19.94387999121192</v>
+        <v>23.56902226532343</v>
       </c>
       <c r="C85" t="n">
-        <v>19.9895339807335</v>
+        <v>23.67294052567136</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.04565398952158617</v>
+        <v>-0.1039182603479283</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>19.95491540631864</v>
+        <v>23.59421276111624</v>
       </c>
       <c r="C86" t="n">
-        <v>20.05763545860519</v>
+        <v>23.62455837769985</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.1027200522865499</v>
+        <v>-0.03034561658360602</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>20.0115101079817</v>
+        <v>23.63772782178273</v>
       </c>
       <c r="C87" t="n">
-        <v>20.03327706955254</v>
+        <v>23.65219318173208</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.02176696157083313</v>
+        <v>-0.01446535994935871</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>20.01553089432311</v>
+        <v>23.68003073073332</v>
       </c>
       <c r="C88" t="n">
-        <v>20.04279392123575</v>
+        <v>23.71521152323907</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.02726302691264593</v>
+        <v>-0.03518079250574857</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20.03798804937252</v>
+        <v>23.68583780630273</v>
       </c>
       <c r="C89" t="n">
-        <v>20.04693617323846</v>
+        <v>23.71389922046195</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.008948123865941682</v>
+        <v>-0.0280614141592217</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>20.56274319372138</v>
+        <v>24.49111385079966</v>
       </c>
       <c r="C90" t="n">
-        <v>20.64282754521333</v>
+        <v>24.51171032266521</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.08008435149194781</v>
+        <v>-0.02059647186554869</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>20.59514061992949</v>
+        <v>24.53070497207777</v>
       </c>
       <c r="C91" t="n">
-        <v>20.70353535370954</v>
+        <v>24.62760984341053</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.1083947337800524</v>
+        <v>-0.09690487133275738</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>20.63812998014084</v>
+        <v>24.53929957153313</v>
       </c>
       <c r="C92" t="n">
-        <v>20.73658040978885</v>
+        <v>24.60356766879194</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.0984504296480111</v>
+        <v>-0.06426809725880744</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>20.65387441305996</v>
+        <v>24.53982779842184</v>
       </c>
       <c r="C93" t="n">
-        <v>20.70319444679798</v>
+        <v>24.63827970672265</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.04932003373802019</v>
+        <v>-0.09845190830081307</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>20.67130364976319</v>
+        <v>24.5498260575248</v>
       </c>
       <c r="C94" t="n">
-        <v>20.77154474833532</v>
+        <v>24.61635745183052</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.1002410985721305</v>
+        <v>-0.06653139430571642</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>20.72047524552659</v>
+        <v>24.56165877314885</v>
       </c>
       <c r="C95" t="n">
-        <v>20.73583405395377</v>
+        <v>24.63812813882146</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.01535880842718385</v>
+        <v>-0.0764693656726152</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>22.95870029432647</v>
+        <v>24.57653209264538</v>
       </c>
       <c r="C96" t="n">
-        <v>23.14234044089156</v>
+        <v>24.60672727855694</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.1836401465650894</v>
+        <v>-0.03019518591155546</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>22.98922860674407</v>
+        <v>24.6012085290772</v>
       </c>
       <c r="C97" t="n">
-        <v>23.00461286202459</v>
+        <v>24.60655861355787</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.01538425528051945</v>
+        <v>-0.005350084480671313</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>22.99114087116002</v>
+        <v>24.62829039402565</v>
       </c>
       <c r="C98" t="n">
-        <v>23.11454323554338</v>
+        <v>24.63598654837678</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.1234023643833595</v>
+        <v>-0.007696154351130247</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>23.00933880177545</v>
+        <v>26.91961339996053</v>
       </c>
       <c r="C99" t="n">
-        <v>23.04767300423361</v>
+        <v>27.04087379424945</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.03833420245815944</v>
+        <v>-0.121260394288921</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>23.019404801964</v>
+        <v>26.92398394084291</v>
       </c>
       <c r="C100" t="n">
-        <v>23.11121590292406</v>
+        <v>26.98930412841252</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.09181110096006151</v>
+        <v>-0.06532018756961122</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>23.02222165033669</v>
+        <v>26.92414416878798</v>
       </c>
       <c r="C101" t="n">
-        <v>23.07059577138048</v>
+        <v>26.96826810496548</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.04837412104378558</v>
+        <v>-0.04412393617750254</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>23.03427253218954</v>
+        <v>26.93221534801122</v>
       </c>
       <c r="C102" t="n">
-        <v>23.14982660528128</v>
+        <v>26.97631620904762</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.1155540730917437</v>
+        <v>-0.04410086103639799</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>23.06976614619166</v>
+        <v>26.94019250200996</v>
       </c>
       <c r="C103" t="n">
-        <v>23.13600454266689</v>
+        <v>27.01736986445383</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.066238396475228</v>
+        <v>-0.07717736244387297</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>23.0789060429134</v>
+        <v>26.95244630123459</v>
       </c>
       <c r="C104" t="n">
-        <v>23.13273523571586</v>
+        <v>27.00186317966699</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.05382919280246057</v>
+        <v>-0.04941687843239251</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>23.08858071677811</v>
+        <v>26.95666560595685</v>
       </c>
       <c r="C105" t="n">
-        <v>23.09760844968917</v>
+        <v>26.96580509602825</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.009027732911054187</v>
+        <v>-0.009139490071394363</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>23.12533110181544</v>
+        <v>26.98471128808115</v>
       </c>
       <c r="C106" t="n">
-        <v>23.14589294786694</v>
+        <v>27.0339774289744</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.0205618460514998</v>
+        <v>-0.04926614089325199</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>23.14879936747634</v>
+        <v>26.98529162874697</v>
       </c>
       <c r="C107" t="n">
-        <v>23.05386693302579</v>
+        <v>27.02268184809084</v>
       </c>
       <c r="D107" t="n">
-        <v>0.09493243445055199</v>
+        <v>-0.03739021934386955</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>23.1612331637729</v>
+        <v>26.99793637212912</v>
       </c>
       <c r="C108" t="n">
-        <v>23.16804479178513</v>
+        <v>26.98842881763234</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.006811628012226123</v>
+        <v>0.009507554496781978</v>
       </c>
     </row>
     <row r="109">
@@ -1953,13 +1953,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>23.19563186588453</v>
+        <v>27.01268337962174</v>
       </c>
       <c r="C109" t="n">
-        <v>23.06069009990979</v>
+        <v>27.04622855365357</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1349417659747338</v>
+        <v>-0.03354517403182911</v>
       </c>
     </row>
     <row r="110">
@@ -1967,13 +1967,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>23.25171404294031</v>
+        <v>27.07915563067955</v>
       </c>
       <c r="C110" t="n">
-        <v>23.13378964611121</v>
+        <v>27.00893088690204</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1179243968290997</v>
+        <v>0.07022474377751209</v>
       </c>
     </row>
     <row r="111">
@@ -1981,13 +1981,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>23.80244071808621</v>
+        <v>28.49437722755267</v>
       </c>
       <c r="C111" t="n">
-        <v>23.9586749653367</v>
+        <v>28.52357239523025</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.1562342472504952</v>
+        <v>-0.02919516767758168</v>
       </c>
     </row>
     <row r="112">
@@ -1995,13 +1995,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>23.81141975766823</v>
+        <v>28.50085629875937</v>
       </c>
       <c r="C112" t="n">
-        <v>23.96256023935534</v>
+        <v>28.67346325446671</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.1511404816871114</v>
+        <v>-0.1726069557073409</v>
       </c>
     </row>
     <row r="113">
@@ -2009,13 +2009,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>23.81676410386505</v>
+        <v>28.51084660616283</v>
       </c>
       <c r="C113" t="n">
-        <v>24.0238465861724</v>
+        <v>28.62264962718169</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.2070824823073494</v>
+        <v>-0.1118030210188614</v>
       </c>
     </row>
     <row r="114">
@@ -2023,13 +2023,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>23.81918056187553</v>
+        <v>28.5297545608356</v>
       </c>
       <c r="C114" t="n">
-        <v>24.00339723975626</v>
+        <v>28.61289093693866</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.1842166778807304</v>
+        <v>-0.08313637610305946</v>
       </c>
     </row>
     <row r="115">
@@ -2037,13 +2037,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>23.8209225100172</v>
+        <v>28.5326380084086</v>
       </c>
       <c r="C115" t="n">
-        <v>23.87951664439065</v>
+        <v>28.61480664163458</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.0585941343734504</v>
+        <v>-0.08216863322597945</v>
       </c>
     </row>
     <row r="116">
@@ -2051,13 +2051,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>23.82581424422147</v>
+        <v>28.54824388893788</v>
       </c>
       <c r="C116" t="n">
-        <v>24.00091030813931</v>
+        <v>28.64377180021517</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.1750960639178345</v>
+        <v>-0.09552791127729421</v>
       </c>
     </row>
     <row r="117">
@@ -2065,13 +2065,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>23.82930523141419</v>
+        <v>28.56228883877529</v>
       </c>
       <c r="C117" t="n">
-        <v>24.02060612333003</v>
+        <v>28.65101501732568</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.1913008919158408</v>
+        <v>-0.08872617855038811</v>
       </c>
     </row>
     <row r="118">
@@ -2079,13 +2079,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>23.8395067907467</v>
+        <v>28.56702273337002</v>
       </c>
       <c r="C118" t="n">
-        <v>23.95035880652442</v>
+        <v>28.64310673891028</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.11085201577772</v>
+        <v>-0.07608400554025607</v>
       </c>
     </row>
     <row r="119">
@@ -2093,13 +2093,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>23.85698762399933</v>
+        <v>28.57396385629273</v>
       </c>
       <c r="C119" t="n">
-        <v>23.90763752998012</v>
+        <v>28.64010123349277</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.05064990598078722</v>
+        <v>-0.06613737720003954</v>
       </c>
     </row>
     <row r="120">
@@ -2107,13 +2107,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>23.85730590642074</v>
+        <v>28.59201409153052</v>
       </c>
       <c r="C120" t="n">
-        <v>23.86814953946918</v>
+        <v>28.63531108245462</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.0108436330484416</v>
+        <v>-0.04329699092409811</v>
       </c>
     </row>
     <row r="121">
@@ -2121,13 +2121,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>23.86172096737929</v>
+        <v>28.64542511507138</v>
       </c>
       <c r="C121" t="n">
-        <v>23.86954356354073</v>
+        <v>28.66127681842624</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.007822596161439321</v>
+        <v>-0.01585170335485486</v>
       </c>
     </row>
     <row r="122">
@@ -2135,13 +2135,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>23.86532503875474</v>
+        <v>28.72192741000651</v>
       </c>
       <c r="C122" t="n">
-        <v>23.9913566291209</v>
+        <v>28.67102718495989</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.1260315903661571</v>
+        <v>0.05090022504661462</v>
       </c>
     </row>
     <row r="123">
@@ -2149,13 +2149,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>23.87408146739083</v>
+        <v>29.94688904586438</v>
       </c>
       <c r="C123" t="n">
-        <v>23.94280226403176</v>
+        <v>29.95899739567826</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.06872079664092823</v>
+        <v>-0.01210834981388231</v>
       </c>
     </row>
     <row r="124">
@@ -2163,13 +2163,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>23.87529727739363</v>
+        <v>29.96469278618853</v>
       </c>
       <c r="C124" t="n">
-        <v>23.94594189892747</v>
+        <v>29.99828868096001</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.07064462153384454</v>
+        <v>-0.03359589477148006</v>
       </c>
     </row>
     <row r="125">
@@ -2177,13 +2177,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>23.87951675189487</v>
+        <v>29.96516709283079</v>
       </c>
       <c r="C125" t="n">
-        <v>23.98032244583467</v>
+        <v>30.02713748261977</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.100805693939801</v>
+        <v>-0.06197038978897851</v>
       </c>
     </row>
     <row r="126">
@@ -2191,13 +2191,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>23.89438605577207</v>
+        <v>29.98177570132914</v>
       </c>
       <c r="C126" t="n">
-        <v>23.95833222314814</v>
+        <v>30.06121181766818</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.0639461673760735</v>
+        <v>-0.07943611633904268</v>
       </c>
     </row>
     <row r="127">
@@ -2205,13 +2205,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>23.95085213732904</v>
+        <v>29.99978757548501</v>
       </c>
       <c r="C127" t="n">
-        <v>23.98661714902072</v>
+        <v>30.04529623299175</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.03576501169168722</v>
+        <v>-0.04550865750673694</v>
       </c>
     </row>
     <row r="128">
@@ -2219,13 +2219,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>23.95326730697958</v>
+        <v>30.00415969130292</v>
       </c>
       <c r="C128" t="n">
-        <v>23.92907145836362</v>
+        <v>30.01716001893196</v>
       </c>
       <c r="D128" t="n">
-        <v>0.02419584861596746</v>
+        <v>-0.01300032762903669</v>
       </c>
     </row>
     <row r="129">
@@ -2233,13 +2233,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>23.95702033295224</v>
+        <v>30.00697626199472</v>
       </c>
       <c r="C129" t="n">
-        <v>23.95439853271918</v>
+        <v>30.09181064801535</v>
       </c>
       <c r="D129" t="n">
-        <v>0.002621800233054472</v>
+        <v>-0.08483438602063131</v>
       </c>
     </row>
     <row r="130">
@@ -2247,13 +2247,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>23.98373685938682</v>
+        <v>30.0072749320043</v>
       </c>
       <c r="C130" t="n">
-        <v>23.99932098530278</v>
+        <v>30.02893658746877</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.01558412591596436</v>
+        <v>-0.02166165546447374</v>
       </c>
     </row>
     <row r="131">
@@ -2261,13 +2261,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>23.99114651836461</v>
+        <v>30.01103407659183</v>
       </c>
       <c r="C131" t="n">
-        <v>23.99284136116272</v>
+        <v>30.10694683373692</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.001694842798109164</v>
+        <v>-0.09591275714508996</v>
       </c>
     </row>
     <row r="132">
@@ -2275,13 +2275,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>23.99425657966912</v>
+        <v>30.01718928890245</v>
       </c>
       <c r="C132" t="n">
-        <v>23.99733913779543</v>
+        <v>30.08272105961425</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.003082558126301649</v>
+        <v>-0.06553177071180372</v>
       </c>
     </row>
     <row r="133">
@@ -2289,13 +2289,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>24.01672347424944</v>
+        <v>30.05074393362714</v>
       </c>
       <c r="C133" t="n">
-        <v>24.02083210269503</v>
+        <v>30.07310690300805</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.004108628445589346</v>
+        <v>-0.02236296938091797</v>
       </c>
     </row>
     <row r="134">
@@ -2303,13 +2303,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>27.50533553788397</v>
+        <v>30.05804742849739</v>
       </c>
       <c r="C134" t="n">
-        <v>27.53351657158755</v>
+        <v>30.07577005335203</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.02818103370357861</v>
+        <v>-0.01772262485463472</v>
       </c>
     </row>
     <row r="135">
@@ -2317,13 +2317,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>27.50705299803825</v>
+        <v>30.081885741107</v>
       </c>
       <c r="C135" t="n">
-        <v>27.63709614549269</v>
+        <v>30.09128325818256</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.1300431474544439</v>
+        <v>-0.009397517075562689</v>
       </c>
     </row>
     <row r="136">
@@ -2331,13 +2331,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>27.51707763757657</v>
+        <v>30.12591723671738</v>
       </c>
       <c r="C136" t="n">
-        <v>27.59716741952219</v>
+        <v>30.04376577251301</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.08008978194562744</v>
+        <v>0.08215146420436881</v>
       </c>
     </row>
     <row r="137">
@@ -2345,13 +2345,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>27.53754188244056</v>
+        <v>30.18160745226803</v>
       </c>
       <c r="C137" t="n">
-        <v>27.60969746750905</v>
+        <v>30.10108585331348</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.07215558506848296</v>
+        <v>0.08052159895455446</v>
       </c>
     </row>
     <row r="138">
@@ -2359,13 +2359,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>27.55277854176178</v>
+        <v>31.64773314617004</v>
       </c>
       <c r="C138" t="n">
-        <v>27.70884845397677</v>
+        <v>31.70268888255454</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.156069912214992</v>
+        <v>-0.05495573638449613</v>
       </c>
     </row>
     <row r="139">
@@ -2373,13 +2373,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>27.56466376754767</v>
+        <v>31.67111944694658</v>
       </c>
       <c r="C139" t="n">
-        <v>27.65377490884228</v>
+        <v>31.73896571978893</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.08911114129460884</v>
+        <v>-0.06784627284235611</v>
       </c>
     </row>
     <row r="140">
@@ -2387,13 +2387,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>27.61846002768805</v>
+        <v>31.68837030383949</v>
       </c>
       <c r="C140" t="n">
-        <v>27.64030379576964</v>
+        <v>31.72367054191771</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.02184376808158817</v>
+        <v>-0.03530023807821436</v>
       </c>
     </row>
     <row r="141">
@@ -2401,13 +2401,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>27.67661460221781</v>
+        <v>31.70211909688413</v>
       </c>
       <c r="C141" t="n">
-        <v>27.69241396256496</v>
+        <v>31.70916068301193</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.01579936034715601</v>
+        <v>-0.007041586127794375</v>
       </c>
     </row>
     <row r="142">
@@ -2415,13 +2415,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>27.67795544133706</v>
+        <v>31.71441681651699</v>
       </c>
       <c r="C142" t="n">
-        <v>27.69451859997001</v>
+        <v>31.73472113556173</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.01656315863295177</v>
+        <v>-0.02030431904473673</v>
       </c>
     </row>
     <row r="143">
@@ -2429,13 +2429,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>27.70676626727733</v>
+        <v>32.24123515111754</v>
       </c>
       <c r="C143" t="n">
-        <v>27.70748915008555</v>
+        <v>32.25419266255977</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.0007228828082226357</v>
+        <v>-0.0129575114422309</v>
       </c>
     </row>
     <row r="144">
@@ -2443,13 +2443,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>31.15729425784021</v>
+        <v>32.24272283047555</v>
       </c>
       <c r="C144" t="n">
-        <v>31.29828864721527</v>
+        <v>32.38655741289752</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.1409943893750665</v>
+        <v>-0.1438345824219667</v>
       </c>
     </row>
     <row r="145">
@@ -2457,13 +2457,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>31.1657536248473</v>
+        <v>32.29221835264032</v>
       </c>
       <c r="C145" t="n">
-        <v>31.33439388671272</v>
+        <v>32.30727541980639</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.1686402618654235</v>
+        <v>-0.0150570671660688</v>
       </c>
     </row>
     <row r="146">
@@ -2471,13 +2471,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>31.1690157409563</v>
+        <v>32.29255796885348</v>
       </c>
       <c r="C146" t="n">
-        <v>31.34737793106867</v>
+        <v>32.35455694116531</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.1783621901123702</v>
+        <v>-0.06199897231183371</v>
       </c>
     </row>
     <row r="147">
@@ -2485,13 +2485,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>31.18099734782104</v>
+        <v>32.2936580488177</v>
       </c>
       <c r="C147" t="n">
-        <v>31.1964992382366</v>
+        <v>32.34268366711124</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.01550189041556038</v>
+        <v>-0.04902561829354113</v>
       </c>
     </row>
     <row r="148">
@@ -2499,13 +2499,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>31.20706613690617</v>
+        <v>32.29705308818193</v>
       </c>
       <c r="C148" t="n">
-        <v>31.30311975758123</v>
+        <v>32.35123378763149</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.09605362067505396</v>
+        <v>-0.05418069944956017</v>
       </c>
     </row>
     <row r="149">
@@ -2513,13 +2513,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>31.22840753259938</v>
+        <v>32.30146006644365</v>
       </c>
       <c r="C149" t="n">
-        <v>31.33956979362015</v>
+        <v>32.37232582833916</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.1111622610207661</v>
+        <v>-0.07086576189551153</v>
       </c>
     </row>
     <row r="150">
@@ -2527,13 +2527,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>31.23727089309559</v>
+        <v>32.31950001609452</v>
       </c>
       <c r="C150" t="n">
-        <v>31.36325889739794</v>
+        <v>32.37675740017735</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.1259880043023536</v>
+        <v>-0.05725738408283121</v>
       </c>
     </row>
     <row r="151">
@@ -2541,13 +2541,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>31.23938914796729</v>
+        <v>32.34354763565489</v>
       </c>
       <c r="C151" t="n">
-        <v>31.30469779040261</v>
+        <v>32.37228726845418</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.06530864243532264</v>
+        <v>-0.0287396327992866</v>
       </c>
     </row>
     <row r="152">
@@ -2555,13 +2555,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>31.27730382438114</v>
+        <v>32.3925089125484</v>
       </c>
       <c r="C152" t="n">
-        <v>31.3380454874996</v>
+        <v>32.39918268915305</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.06074166311845985</v>
+        <v>-0.006673776604650072</v>
       </c>
     </row>
     <row r="153">
@@ -2569,13 +2569,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>31.29622580407054</v>
+        <v>36.68977613810812</v>
       </c>
       <c r="C153" t="n">
-        <v>31.29978759868791</v>
+        <v>36.7368254289069</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.003561794617368719</v>
+        <v>-0.04704929079878184</v>
       </c>
     </row>
     <row r="154">
@@ -2583,13 +2583,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>31.3274948642619</v>
+        <v>36.6954536786538</v>
       </c>
       <c r="C154" t="n">
-        <v>31.32997846370387</v>
+        <v>36.78462017810936</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.002483599441962525</v>
+        <v>-0.08916649945556543</v>
       </c>
     </row>
     <row r="155">
@@ -2597,13 +2597,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>37.26365396804432</v>
+        <v>36.72715515570084</v>
       </c>
       <c r="C155" t="n">
-        <v>37.38221110881471</v>
+        <v>36.8156782366256</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.1185571407703847</v>
+        <v>-0.08852308092476591</v>
       </c>
     </row>
     <row r="156">
@@ -2611,13 +2611,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>37.27449223734068</v>
+        <v>36.7423997001619</v>
       </c>
       <c r="C156" t="n">
-        <v>37.30471155121533</v>
+        <v>36.75514869831801</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.03021931387464605</v>
+        <v>-0.01274899815610553</v>
       </c>
     </row>
     <row r="157">
@@ -2625,13 +2625,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>37.32928102399487</v>
+        <v>36.77514627161359</v>
       </c>
       <c r="C157" t="n">
-        <v>37.34208567106598</v>
+        <v>36.80975072600878</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.01280464707110696</v>
+        <v>-0.03460445439518622</v>
       </c>
     </row>
     <row r="158">
@@ -2639,13 +2639,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>37.33058196546083</v>
+        <v>36.77596053214432</v>
       </c>
       <c r="C158" t="n">
-        <v>37.44766836435599</v>
+        <v>36.78097855629142</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.1170863988951609</v>
+        <v>-0.005018024147091182</v>
       </c>
     </row>
     <row r="159">
@@ -2653,13 +2653,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>37.44014530215416</v>
+        <v>39.21341884897552</v>
       </c>
       <c r="C159" t="n">
-        <v>37.45011682230059</v>
+        <v>39.32124495214747</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.009971520146422108</v>
+        <v>-0.1078261031719521</v>
       </c>
     </row>
     <row r="160">
@@ -2667,13 +2667,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>37.60212019980758</v>
+        <v>39.22561258095166</v>
       </c>
       <c r="C160" t="n">
-        <v>37.64199616001495</v>
+        <v>39.2762145980578</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.03987596020737527</v>
+        <v>-0.05060201710613654</v>
       </c>
     </row>
     <row r="161">
@@ -2681,13 +2681,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>37.60541280345733</v>
+        <v>39.24058746232968</v>
       </c>
       <c r="C161" t="n">
-        <v>37.67355411638215</v>
+        <v>39.28495593381539</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.06814131292481562</v>
+        <v>-0.04436847148571132</v>
       </c>
     </row>
     <row r="162">
@@ -2695,13 +2695,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>37.61697401534485</v>
+        <v>39.27340835482631</v>
       </c>
       <c r="C162" t="n">
-        <v>37.63790346937043</v>
+        <v>39.28998923992474</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.02092945402557689</v>
+        <v>-0.0165808850984277</v>
       </c>
     </row>
     <row r="163">
@@ -2709,13 +2709,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>37.61933332819284</v>
+        <v>39.27989379865765</v>
       </c>
       <c r="C163" t="n">
-        <v>37.74493738513554</v>
+        <v>39.29554585356141</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.1256040569426986</v>
+        <v>-0.01565205490375376</v>
       </c>
     </row>
     <row r="164">
@@ -2723,13 +2723,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>37.75134180023154</v>
+        <v>39.3058684634864</v>
       </c>
       <c r="C164" t="n">
-        <v>37.78173461564856</v>
+        <v>39.31676873516081</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.03039281541702366</v>
+        <v>-0.01090027167441576</v>
       </c>
     </row>
     <row r="165">
@@ -2737,13 +2737,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>47.41606822710889</v>
+        <v>42.42155086843345</v>
       </c>
       <c r="C165" t="n">
-        <v>47.55909827650541</v>
+        <v>42.52385851389321</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.143030049396522</v>
+        <v>-0.10230764545976</v>
       </c>
     </row>
     <row r="166">
@@ -2751,13 +2751,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>47.43510444888287</v>
+        <v>42.4273117185239</v>
       </c>
       <c r="C166" t="n">
-        <v>47.49585004124742</v>
+        <v>42.4987649570494</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.06074559236455457</v>
+        <v>-0.07145323852549978</v>
       </c>
     </row>
     <row r="167">
@@ -2765,13 +2765,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>47.44256794980767</v>
+        <v>42.44694872857282</v>
       </c>
       <c r="C167" t="n">
-        <v>47.51555204867056</v>
+        <v>42.48308206407096</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.07298409886288937</v>
+        <v>-0.03613333549813547</v>
       </c>
     </row>
     <row r="168">
@@ -2779,13 +2779,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>47.44448088366418</v>
+        <v>42.45641267553664</v>
       </c>
       <c r="C168" t="n">
-        <v>47.50276252341938</v>
+        <v>42.52354483755727</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.05828163975520084</v>
+        <v>-0.06713216202063421</v>
       </c>
     </row>
     <row r="169">
@@ -2793,13 +2793,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>47.45983733097311</v>
+        <v>42.45769340898283</v>
       </c>
       <c r="C169" t="n">
-        <v>47.56321166315852</v>
+        <v>42.54262115798038</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.1033743321854104</v>
+        <v>-0.08492774899755062</v>
       </c>
     </row>
     <row r="170">
@@ -2807,13 +2807,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>47.47563653095216</v>
+        <v>42.47287208413628</v>
       </c>
       <c r="C170" t="n">
-        <v>47.51645834513021</v>
+        <v>42.5259822573821</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.04082181417805231</v>
+        <v>-0.05311017324581968</v>
       </c>
     </row>
     <row r="171">
@@ -2821,13 +2821,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>47.49252853811367</v>
+        <v>42.47500488012228</v>
       </c>
       <c r="C171" t="n">
-        <v>47.57460061318319</v>
+        <v>42.48135452823718</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.08207207506951164</v>
+        <v>-0.006349648114898798</v>
       </c>
     </row>
     <row r="172">
@@ -2835,13 +2835,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>47.50428801206369</v>
+        <v>42.47938850176494</v>
       </c>
       <c r="C172" t="n">
-        <v>47.50825095432837</v>
+        <v>42.52401312943169</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.00396294226468541</v>
+        <v>-0.04462462766674946</v>
       </c>
     </row>
     <row r="173">
@@ -2849,13 +2849,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>47.51946422769844</v>
+        <v>42.48354642245682</v>
       </c>
       <c r="C173" t="n">
-        <v>47.57447164136681</v>
+        <v>42.4950608158084</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.05500741366837758</v>
+        <v>-0.01151439335158244</v>
       </c>
     </row>
     <row r="174">
@@ -2863,13 +2863,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>47.53290121786875</v>
+        <v>42.50331760425753</v>
       </c>
       <c r="C174" t="n">
-        <v>47.57245389384503</v>
+        <v>42.53699607585079</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.03955267597627454</v>
+        <v>-0.03367847159326232</v>
       </c>
     </row>
     <row r="175">
@@ -2877,13 +2877,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>47.54086008121529</v>
+        <v>42.50387682935846</v>
       </c>
       <c r="C175" t="n">
-        <v>47.57062765182837</v>
+        <v>42.50690094414188</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.02976757061308888</v>
+        <v>-0.003024114783421794</v>
       </c>
     </row>
     <row r="176">
@@ -2891,13 +2891,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>47.59064220376185</v>
+        <v>42.71493074562208</v>
       </c>
       <c r="C176" t="n">
-        <v>47.52005462071394</v>
+        <v>42.85224891423951</v>
       </c>
       <c r="D176" t="n">
-        <v>0.07058758304791013</v>
+        <v>-0.1373181686174334</v>
       </c>
     </row>
     <row r="177">
@@ -2905,13 +2905,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>47.61821162902609</v>
+        <v>42.72038277164717</v>
       </c>
       <c r="C177" t="n">
-        <v>47.52430314955255</v>
+        <v>42.81889057762305</v>
       </c>
       <c r="D177" t="n">
-        <v>0.09390847947353365</v>
+        <v>-0.09850780597588482</v>
       </c>
     </row>
     <row r="178">
@@ -2919,13 +2919,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>47.67601936011707</v>
+        <v>42.7552155565051</v>
       </c>
       <c r="C178" t="n">
-        <v>47.47259746076314</v>
+        <v>42.78533859001742</v>
       </c>
       <c r="D178" t="n">
-        <v>0.2034218993539341</v>
+        <v>-0.03012303351232504</v>
       </c>
     </row>
     <row r="179">
@@ -2933,13 +2933,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>48.04530980145453</v>
+        <v>42.76918630929053</v>
       </c>
       <c r="C179" t="n">
-        <v>47.43255325792703</v>
+        <v>42.79945144262948</v>
       </c>
       <c r="D179" t="n">
-        <v>0.6127565435275031</v>
+        <v>-0.03026513333895764</v>
       </c>
     </row>
     <row r="180">
@@ -2947,13 +2947,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>53.63420377749975</v>
+        <v>42.77663717738696</v>
       </c>
       <c r="C180" t="n">
-        <v>53.66290704325036</v>
+        <v>42.77761446446214</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.02870326575061455</v>
+        <v>-0.0009772870751802998</v>
       </c>
     </row>
     <row r="181">
@@ -2961,13 +2961,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>53.64560018387142</v>
+        <v>47.07707759224866</v>
       </c>
       <c r="C181" t="n">
-        <v>53.68373037766017</v>
+        <v>47.09906793240992</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.03813019378875282</v>
+        <v>-0.02199034016125267</v>
       </c>
     </row>
     <row r="182">
@@ -2975,13 +2975,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>53.69417106563675</v>
+        <v>47.0954952312587</v>
       </c>
       <c r="C182" t="n">
-        <v>53.73782636793046</v>
+        <v>47.23789483119064</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.04365530229370762</v>
+        <v>-0.1423995999319487</v>
       </c>
     </row>
     <row r="183">
@@ -2989,13 +2989,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>53.69933808013098</v>
+        <v>47.10936666937831</v>
       </c>
       <c r="C183" t="n">
-        <v>53.74223430322117</v>
+        <v>47.18921648177232</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.04289622309019592</v>
+        <v>-0.07984981239400923</v>
       </c>
     </row>
     <row r="184">
@@ -3003,13 +3003,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>53.73243185442446</v>
+        <v>47.11574840406686</v>
       </c>
       <c r="C184" t="n">
-        <v>53.74248376527375</v>
+        <v>47.16532799907235</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.0100519108492847</v>
+        <v>-0.04957959500548981</v>
       </c>
     </row>
     <row r="185">
@@ -3017,13 +3017,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>53.75457460351021</v>
+        <v>47.12024772749498</v>
       </c>
       <c r="C185" t="n">
-        <v>53.79753279177557</v>
+        <v>47.21334287936767</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.04295818826535935</v>
+        <v>-0.09309515187269568</v>
       </c>
     </row>
     <row r="186">
@@ -3031,13 +3031,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>53.75799312511907</v>
+        <v>47.12360996096545</v>
       </c>
       <c r="C186" t="n">
-        <v>53.78333658609369</v>
+        <v>47.244360079073</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.02534346097461793</v>
+        <v>-0.1207501181075514</v>
       </c>
     </row>
     <row r="187">
@@ -3045,13 +3045,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>53.77328611237098</v>
+        <v>47.1419743849727</v>
       </c>
       <c r="C187" t="n">
-        <v>53.77602577940656</v>
+        <v>47.14209572197827</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.002739667035577042</v>
+        <v>-0.0001213370055666019</v>
       </c>
     </row>
     <row r="188">
@@ -3059,13 +3059,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>53.83088574614686</v>
+        <v>47.15720580099124</v>
       </c>
       <c r="C188" t="n">
-        <v>53.87290447899915</v>
+        <v>47.1676761373628</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.04201873285229141</v>
+        <v>-0.01047033637155437</v>
       </c>
     </row>
     <row r="189">
@@ -3073,13 +3073,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>53.84344773299159</v>
+        <v>47.16682369162864</v>
       </c>
       <c r="C189" t="n">
-        <v>53.89790155567155</v>
+        <v>47.24504156677432</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.05445382267996735</v>
+        <v>-0.07821787514567546</v>
       </c>
     </row>
     <row r="190">
@@ -3087,13 +3087,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>53.84585199676497</v>
+        <v>47.17936523519421</v>
       </c>
       <c r="C190" t="n">
-        <v>53.92878819443369</v>
+        <v>47.19149547419732</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.0829361976687224</v>
+        <v>-0.01213023900311327</v>
       </c>
     </row>
     <row r="191">
@@ -3101,13 +3101,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>53.85742824291618</v>
+        <v>47.17958942772202</v>
       </c>
       <c r="C191" t="n">
-        <v>53.96603859161289</v>
+        <v>47.18282826092679</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.1086103486967076</v>
+        <v>-0.00323883320476881</v>
       </c>
     </row>
     <row r="192">
@@ -3115,13 +3115,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>53.8736591344578</v>
+        <v>47.18917232569439</v>
       </c>
       <c r="C192" t="n">
-        <v>53.87483824714128</v>
+        <v>47.19742447048893</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.001179112683473704</v>
+        <v>-0.008252144794539618</v>
       </c>
     </row>
     <row r="193">
@@ -3129,13 +3129,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>56.63087239111823</v>
+        <v>47.18983974099818</v>
       </c>
       <c r="C193" t="n">
-        <v>56.67986513550011</v>
+        <v>47.20909091690602</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.04899274438187717</v>
+        <v>-0.01925117590783998</v>
       </c>
     </row>
     <row r="194">
@@ -3143,13 +3143,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>56.64888135254863</v>
+        <v>47.29154196248378</v>
       </c>
       <c r="C194" t="n">
-        <v>56.74468855857829</v>
+        <v>47.17576150282762</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.09580720602965442</v>
+        <v>0.1157804596561647</v>
       </c>
     </row>
     <row r="195">
@@ -3157,13 +3157,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>56.65873108207712</v>
+        <v>47.35753789956619</v>
       </c>
       <c r="C195" t="n">
-        <v>56.68048767749747</v>
+        <v>47.39025000665081</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.02175659542034936</v>
+        <v>-0.03271210708462036</v>
       </c>
     </row>
     <row r="196">
@@ -3171,13 +3171,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>56.67983152376127</v>
+        <v>47.36777081585762</v>
       </c>
       <c r="C196" t="n">
-        <v>56.81308256821688</v>
+        <v>47.3913230867532</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.1332510444556121</v>
+        <v>-0.02355227089558554</v>
       </c>
     </row>
     <row r="197">
@@ -3185,13 +3185,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>56.70013704534426</v>
+        <v>47.38188656726444</v>
       </c>
       <c r="C197" t="n">
-        <v>56.74315129284025</v>
+        <v>47.45141076770116</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.04301424749599647</v>
+        <v>-0.06952420043671736</v>
       </c>
     </row>
     <row r="198">
@@ -3199,13 +3199,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>56.71300661818603</v>
+        <v>47.41645970343668</v>
       </c>
       <c r="C198" t="n">
-        <v>56.81570938989557</v>
+        <v>47.48530341600598</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.1027027717095379</v>
+        <v>-0.06884371256929711</v>
       </c>
     </row>
     <row r="199">
@@ -3213,13 +3213,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>56.71702297984986</v>
+        <v>47.42535114754302</v>
       </c>
       <c r="C199" t="n">
-        <v>56.78379342519742</v>
+        <v>47.48868241648444</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.06677044534756504</v>
+        <v>-0.06333126894142538</v>
       </c>
     </row>
     <row r="200">
@@ -3227,13 +3227,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>56.72730150528456</v>
+        <v>47.44883065130276</v>
       </c>
       <c r="C200" t="n">
-        <v>56.75982654669147</v>
+        <v>47.51001944810764</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.03252504140691315</v>
+        <v>-0.06118879680488476</v>
       </c>
     </row>
     <row r="201">
@@ -3241,13 +3241,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>56.76968504807493</v>
+        <v>47.45139448397205</v>
       </c>
       <c r="C201" t="n">
-        <v>56.77502728744017</v>
+        <v>47.48924886429761</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.005342239365234036</v>
+        <v>-0.03785438032556243</v>
       </c>
     </row>
     <row r="202">
@@ -3255,13 +3255,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>56.78318440754346</v>
+        <v>51.42754214763308</v>
       </c>
       <c r="C202" t="n">
-        <v>56.78233009329261</v>
+        <v>51.57582312833671</v>
       </c>
       <c r="D202" t="n">
-        <v>0.000854314250844368</v>
+        <v>-0.1482809807036318</v>
       </c>
     </row>
     <row r="203">
@@ -3269,13 +3269,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>56.78575375996588</v>
+        <v>51.44467374872836</v>
       </c>
       <c r="C203" t="n">
-        <v>56.81505807575974</v>
+        <v>51.51945228644716</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.02930431579385839</v>
+        <v>-0.0747785377187995</v>
       </c>
     </row>
     <row r="204">
@@ -3283,13 +3283,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>56.9071178756293</v>
+        <v>51.45516643006004</v>
       </c>
       <c r="C204" t="n">
-        <v>56.8132570122697</v>
+        <v>51.4991638110716</v>
       </c>
       <c r="D204" t="n">
-        <v>0.09386086335959476</v>
+        <v>-0.04399738101155748</v>
       </c>
     </row>
     <row r="205">
@@ -3297,13 +3297,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>59.47703122503047</v>
+        <v>51.46844035062884</v>
       </c>
       <c r="C205" t="n">
-        <v>59.58862762877617</v>
+        <v>51.50271434192148</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.1115964037456934</v>
+        <v>-0.0342739912926433</v>
       </c>
     </row>
     <row r="206">
@@ -3311,13 +3311,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>59.48442271925451</v>
+        <v>51.48751037369856</v>
       </c>
       <c r="C206" t="n">
-        <v>59.65057137542827</v>
+        <v>51.51620799207311</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.1661486561737604</v>
+        <v>-0.02869761837455087</v>
       </c>
     </row>
     <row r="207">
@@ -3325,13 +3325,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>59.4867150047505</v>
+        <v>51.51241216896031</v>
       </c>
       <c r="C207" t="n">
-        <v>59.50340800182163</v>
+        <v>51.54035402233583</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.01669299707113225</v>
+        <v>-0.02794185337551625</v>
       </c>
     </row>
     <row r="208">
@@ -3339,13 +3339,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>59.58030430954996</v>
+        <v>57.0788185630941</v>
       </c>
       <c r="C208" t="n">
-        <v>59.60325902002816</v>
+        <v>57.16300350492394</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.02295471047820286</v>
+        <v>-0.08418494182983238</v>
       </c>
     </row>
     <row r="209">
@@ -3353,13 +3353,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>59.58419336979028</v>
+        <v>57.08002863459992</v>
       </c>
       <c r="C209" t="n">
-        <v>59.69680998609391</v>
+        <v>57.10700987561192</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.1126166163036331</v>
+        <v>-0.0269812410120025</v>
       </c>
     </row>
     <row r="210">
@@ -3367,13 +3367,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>59.58835553064472</v>
+        <v>57.08095813991018</v>
       </c>
       <c r="C210" t="n">
-        <v>59.59244114411813</v>
+        <v>57.14708771061397</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.004085613473407079</v>
+        <v>-0.06612957070378656</v>
       </c>
     </row>
     <row r="211">
@@ -3381,13 +3381,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>59.59098436640628</v>
+        <v>57.09210220608685</v>
       </c>
       <c r="C211" t="n">
-        <v>59.67399102380261</v>
+        <v>57.20530914371266</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.08300665739633217</v>
+        <v>-0.1132069376258116</v>
       </c>
     </row>
     <row r="212">
@@ -3395,13 +3395,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>59.59122440683323</v>
+        <v>57.09782201891881</v>
       </c>
       <c r="C212" t="n">
-        <v>59.66614359088438</v>
+        <v>57.14220785669097</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.07491918405115428</v>
+        <v>-0.04438583777215399</v>
       </c>
     </row>
     <row r="213">
@@ -3409,13 +3409,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>59.59493379452167</v>
+        <v>57.0998811311047</v>
       </c>
       <c r="C213" t="n">
-        <v>59.69733005332607</v>
+        <v>57.18900793105941</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.1023962588043972</v>
+        <v>-0.08912679995471251</v>
       </c>
     </row>
     <row r="214">
@@ -3423,13 +3423,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>59.6234732320007</v>
+        <v>57.10770265178919</v>
       </c>
       <c r="C214" t="n">
-        <v>59.63702697377776</v>
+        <v>57.1739480790099</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.01355374177705926</v>
+        <v>-0.06624542722071425</v>
       </c>
     </row>
     <row r="215">
@@ -3437,13 +3437,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>59.63096172680245</v>
+        <v>57.15366802141978</v>
       </c>
       <c r="C215" t="n">
-        <v>59.69021138345955</v>
+        <v>57.2115235344888</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.05924965665709436</v>
+        <v>-0.05785551306901482</v>
       </c>
     </row>
     <row r="216">
@@ -3451,13 +3451,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>59.6309722336152</v>
+        <v>57.1727609406273</v>
       </c>
       <c r="C216" t="n">
-        <v>59.69622909763842</v>
+        <v>57.18728454962408</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.06525686402322606</v>
+        <v>-0.0145236089967824</v>
       </c>
     </row>
     <row r="217">
@@ -3465,13 +3465,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>59.63543690858464</v>
+        <v>57.19176874318924</v>
       </c>
       <c r="C217" t="n">
-        <v>59.65807366525544</v>
+        <v>57.13308838146835</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.02263675667080634</v>
+        <v>0.05868036172088154</v>
       </c>
     </row>
     <row r="218">
@@ -3479,13 +3479,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>59.64226324053019</v>
+        <v>57.69480131512809</v>
       </c>
       <c r="C218" t="n">
-        <v>59.68528990827618</v>
+        <v>57.72923021639063</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.04302666774599118</v>
+        <v>-0.03442890126254383</v>
       </c>
     </row>
     <row r="219">
@@ -3493,13 +3493,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>59.96938732272042</v>
+        <v>57.70933344470419</v>
       </c>
       <c r="C219" t="n">
-        <v>59.64431438464771</v>
+        <v>57.80998077981082</v>
       </c>
       <c r="D219" t="n">
-        <v>0.325072938072708</v>
+        <v>-0.1006473351066361</v>
       </c>
     </row>
     <row r="220">
@@ -3507,13 +3507,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>70.74831758157885</v>
+        <v>57.72461320128133</v>
       </c>
       <c r="C220" t="n">
-        <v>70.92569416894811</v>
+        <v>57.78848947210585</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.1773765873692668</v>
+        <v>-0.06387627082452241</v>
       </c>
     </row>
     <row r="221">
@@ -3521,13 +3521,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>70.75420042074055</v>
+        <v>57.72518873653213</v>
       </c>
       <c r="C221" t="n">
-        <v>70.95793814999602</v>
+        <v>57.74017617816761</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.2037377292554794</v>
+        <v>-0.01498744163548338</v>
       </c>
     </row>
     <row r="222">
@@ -3535,13 +3535,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>70.78289996372527</v>
+        <v>57.72946275966686</v>
       </c>
       <c r="C222" t="n">
-        <v>70.79334553391314</v>
+        <v>57.7654438365217</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.01044557018786918</v>
+        <v>-0.03598107685483853</v>
       </c>
     </row>
     <row r="223">
@@ -3549,13 +3549,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>70.8199513857317</v>
+        <v>57.73403376249784</v>
       </c>
       <c r="C223" t="n">
-        <v>70.8740537167738</v>
+        <v>57.83942275071733</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.05410233104210249</v>
+        <v>-0.1053889882194881</v>
       </c>
     </row>
     <row r="224">
@@ -3563,13 +3563,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>70.82513503358537</v>
+        <v>57.75133325105563</v>
       </c>
       <c r="C224" t="n">
-        <v>70.94856988589221</v>
+        <v>57.77524035615395</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.1234348523068434</v>
+        <v>-0.02390710509831706</v>
       </c>
     </row>
     <row r="225">
@@ -3577,13 +3577,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>70.82576908155666</v>
+        <v>57.75826233793363</v>
       </c>
       <c r="C225" t="n">
-        <v>70.86839514200254</v>
+        <v>57.83001942908381</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.04262606044588324</v>
+        <v>-0.07175709115018236</v>
       </c>
     </row>
     <row r="226">
@@ -3591,13 +3591,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>70.93313853003583</v>
+        <v>57.76322154718729</v>
       </c>
       <c r="C226" t="n">
-        <v>70.96617095351324</v>
+        <v>57.82721845034777</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.0330324234774082</v>
+        <v>-0.06399690316048634</v>
       </c>
     </row>
     <row r="227">
@@ -3605,13 +3605,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>72.12771670648242</v>
+        <v>57.7923511883799</v>
       </c>
       <c r="C227" t="n">
-        <v>72.32485763330452</v>
+        <v>57.82125208796005</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.1971409268221009</v>
+        <v>-0.02890089958015807</v>
       </c>
     </row>
     <row r="228">
@@ -3619,13 +3619,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>72.13064038344471</v>
+        <v>57.81293818300449</v>
       </c>
       <c r="C228" t="n">
-        <v>72.31601422374105</v>
+        <v>57.82551697093561</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.1853738402963359</v>
+        <v>-0.012578787931119</v>
       </c>
     </row>
     <row r="229">
@@ -3633,13 +3633,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>72.14561910391511</v>
+        <v>57.81623980955472</v>
       </c>
       <c r="C229" t="n">
-        <v>72.24935463279407</v>
+        <v>57.841549778972</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.103735528878957</v>
+        <v>-0.02530996941727892</v>
       </c>
     </row>
     <row r="230">
@@ -3647,13 +3647,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>72.15873457930918</v>
+        <v>57.82316076025637</v>
       </c>
       <c r="C230" t="n">
-        <v>72.27483547968876</v>
+        <v>57.77053352366974</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.1161009003795783</v>
+        <v>0.05262723658663049</v>
       </c>
     </row>
     <row r="231">
@@ -3661,13 +3661,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>72.16684463821444</v>
+        <v>57.83692273338337</v>
       </c>
       <c r="C231" t="n">
-        <v>72.18085058380223</v>
+        <v>57.84121243671554</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.01400594558778323</v>
+        <v>-0.004289703332162276</v>
       </c>
     </row>
     <row r="232">
@@ -3675,13 +3675,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>72.17566288790181</v>
+        <v>57.91956283523992</v>
       </c>
       <c r="C232" t="n">
-        <v>72.25112506007841</v>
+        <v>57.72803563808497</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.07546217217660001</v>
+        <v>0.1915271971549473</v>
       </c>
     </row>
     <row r="233">
@@ -3689,13 +3689,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>72.17986403714036</v>
+        <v>59.94346593310251</v>
       </c>
       <c r="C233" t="n">
-        <v>72.30988767616223</v>
+        <v>60.04813267843073</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.1300236390218714</v>
+        <v>-0.104666745328224</v>
       </c>
     </row>
     <row r="234">
@@ -3703,13 +3703,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>72.1985890362029</v>
+        <v>59.94970489557957</v>
       </c>
       <c r="C234" t="n">
-        <v>72.20163918464573</v>
+        <v>60.05575847498458</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.003050148442824252</v>
+        <v>-0.1060535794050068</v>
       </c>
     </row>
     <row r="235">
@@ -3717,13 +3717,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>72.23350343622997</v>
+        <v>59.95139916342516</v>
       </c>
       <c r="C235" t="n">
-        <v>72.27380530092087</v>
+        <v>59.97515632159751</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.04030186469090324</v>
+        <v>-0.02375715817235147</v>
       </c>
     </row>
     <row r="236">
@@ -3731,13 +3731,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>72.25028726068199</v>
+        <v>59.97588444297313</v>
       </c>
       <c r="C236" t="n">
-        <v>72.3232416380864</v>
+        <v>60.00340938818675</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.07295437740441457</v>
+        <v>-0.02752494521362081</v>
       </c>
     </row>
     <row r="237">
@@ -3745,13 +3745,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>76.36311843601838</v>
+        <v>60.013384813793</v>
       </c>
       <c r="C237" t="n">
-        <v>76.52185201986832</v>
+        <v>60.02852060570265</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.1587335838499371</v>
+        <v>-0.01513579190965686</v>
       </c>
     </row>
     <row r="238">
@@ -3759,13 +3759,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>76.37006226119972</v>
+        <v>60.01869365396756</v>
       </c>
       <c r="C238" t="n">
-        <v>76.41798655234055</v>
+        <v>60.06529933561141</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.04792429114083063</v>
+        <v>-0.04660568164384671</v>
       </c>
     </row>
     <row r="239">
@@ -3773,13 +3773,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>76.39257863190426</v>
+        <v>62.77923439496455</v>
       </c>
       <c r="C239" t="n">
-        <v>76.55595413144393</v>
+        <v>62.8505850086672</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.1633754995396686</v>
+        <v>-0.07135061370265561</v>
       </c>
     </row>
     <row r="240">
@@ -3787,13 +3787,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>76.41082129199215</v>
+        <v>62.81754413392725</v>
       </c>
       <c r="C240" t="n">
-        <v>76.58106177110294</v>
+        <v>62.8562928003037</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.1702404791107881</v>
+        <v>-0.03874866637644914</v>
       </c>
     </row>
     <row r="241">
@@ -3801,13 +3801,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>76.54902264605272</v>
+        <v>62.82205560266711</v>
       </c>
       <c r="C241" t="n">
-        <v>76.55327009019656</v>
+        <v>62.89189944582007</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.004247444143842927</v>
+        <v>-0.06984384315296666</v>
       </c>
     </row>
     <row r="242">
@@ -3815,13 +3815,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>81.87419880557854</v>
+        <v>62.8232622190578</v>
       </c>
       <c r="C242" t="n">
-        <v>82.08009075225158</v>
+        <v>62.86547179366236</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.2058919466730345</v>
+        <v>-0.04220957460455566</v>
       </c>
     </row>
     <row r="243">
@@ -3829,13 +3829,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>81.88816422780504</v>
+        <v>62.83475802093551</v>
       </c>
       <c r="C243" t="n">
-        <v>81.95027283931422</v>
+        <v>62.8393207309515</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.06210861150918845</v>
+        <v>-0.004562710015989069</v>
       </c>
     </row>
     <row r="244">
@@ -3843,13 +3843,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>81.92122461274028</v>
+        <v>62.83894843289582</v>
       </c>
       <c r="C244" t="n">
-        <v>81.95995635463792</v>
+        <v>62.85755895979278</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.03873174189764939</v>
+        <v>-0.01861052689696407</v>
       </c>
     </row>
     <row r="245">
@@ -3857,13 +3857,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>81.92250551849338</v>
+        <v>62.84241204461132</v>
       </c>
       <c r="C245" t="n">
-        <v>82.01500645353387</v>
+        <v>62.89956775230806</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.09250093504049062</v>
+        <v>-0.05715570769674372</v>
       </c>
     </row>
     <row r="246">
@@ -3871,13 +3871,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>81.9266316003644</v>
+        <v>62.85748697210339</v>
       </c>
       <c r="C246" t="n">
-        <v>82.06461008990225</v>
+        <v>62.8656076021836</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.1379784895378435</v>
+        <v>-0.008120630080206581</v>
       </c>
     </row>
     <row r="247">
@@ -3885,13 +3885,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>81.92845063726081</v>
+        <v>62.857656521793</v>
       </c>
       <c r="C247" t="n">
-        <v>82.03937447205908</v>
+        <v>62.91466836734647</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.1109238347982711</v>
+        <v>-0.05701184555346828</v>
       </c>
     </row>
     <row r="248">
@@ -3899,13 +3899,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>81.94312665418515</v>
+        <v>62.87396354581892</v>
       </c>
       <c r="C248" t="n">
-        <v>81.99505312267415</v>
+        <v>62.89120063919671</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.0519264684890004</v>
+        <v>-0.01723709337778701</v>
       </c>
     </row>
     <row r="249">
@@ -3913,13 +3913,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>81.9651840100545</v>
+        <v>62.8817530065571</v>
       </c>
       <c r="C249" t="n">
-        <v>82.03140073826539</v>
+        <v>62.898722230584</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.06621672821088964</v>
+        <v>-0.01696922402690149</v>
       </c>
     </row>
     <row r="250">
@@ -3927,13 +3927,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>81.97118080562643</v>
+        <v>72.46526094166032</v>
       </c>
       <c r="C250" t="n">
-        <v>82.01101106954712</v>
+        <v>72.60155200983358</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.03983026392069178</v>
+        <v>-0.1362910681732643</v>
       </c>
     </row>
     <row r="251">
@@ -3941,13 +3941,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>82.00351834897532</v>
+        <v>72.4732559722093</v>
       </c>
       <c r="C251" t="n">
-        <v>82.02360333135674</v>
+        <v>72.63579137051455</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.02008498238141954</v>
+        <v>-0.162535398305252</v>
       </c>
     </row>
     <row r="252">
@@ -3955,13 +3955,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>82.01926927974154</v>
+        <v>72.49645240397589</v>
       </c>
       <c r="C252" t="n">
-        <v>82.04337745743669</v>
+        <v>72.5979850764124</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.02410817769515461</v>
+        <v>-0.1015326724365053</v>
       </c>
     </row>
     <row r="253">
@@ -3969,13 +3969,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>82.0297006384543</v>
+        <v>72.49888525412912</v>
       </c>
       <c r="C253" t="n">
-        <v>82.0695696288446</v>
+        <v>72.53815026237699</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.03986899039030334</v>
+        <v>-0.03926500824786672</v>
       </c>
     </row>
     <row r="254">
@@ -3983,13 +3983,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>82.08805674607414</v>
+        <v>72.51140531761557</v>
       </c>
       <c r="C254" t="n">
-        <v>82.06538358575195</v>
+        <v>72.57280747391781</v>
       </c>
       <c r="D254" t="n">
-        <v>0.02267316032219924</v>
+        <v>-0.06140215630223622</v>
       </c>
     </row>
     <row r="255">
@@ -3997,13 +3997,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>82.29227116790612</v>
+        <v>72.51860098558866</v>
       </c>
       <c r="C255" t="n">
-        <v>81.97140760374728</v>
+        <v>72.54452064868946</v>
       </c>
       <c r="D255" t="n">
-        <v>0.3208635641588415</v>
+        <v>-0.02591966310079385</v>
       </c>
     </row>
     <row r="256">
@@ -4011,13 +4011,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>83.00901842504884</v>
+        <v>72.53347827930601</v>
       </c>
       <c r="C256" t="n">
-        <v>83.07588078314517</v>
+        <v>72.60479198384613</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.0668623580963299</v>
+        <v>-0.07131370454011687</v>
       </c>
     </row>
     <row r="257">
@@ -4025,13 +4025,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>83.01941237915912</v>
+        <v>72.54148468743868</v>
       </c>
       <c r="C257" t="n">
-        <v>83.17811175697096</v>
+        <v>72.57396861979602</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.1586993778118426</v>
+        <v>-0.03248393235733715</v>
       </c>
     </row>
     <row r="258">
@@ -4039,13 +4039,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>83.02799629673183</v>
+        <v>72.55666919962556</v>
       </c>
       <c r="C258" t="n">
-        <v>83.22547830911095</v>
+        <v>72.58364655415534</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.1974820123791261</v>
+        <v>-0.02697735452977668</v>
       </c>
     </row>
     <row r="259">
@@ -4053,13 +4053,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>83.04588042643506</v>
+        <v>72.57099823112419</v>
       </c>
       <c r="C259" t="n">
-        <v>83.05429637034534</v>
+        <v>72.62942699948675</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.008415943910279111</v>
+        <v>-0.05842876836256039</v>
       </c>
     </row>
     <row r="260">
@@ -4067,13 +4067,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>83.0566942469022</v>
+        <v>72.58593861977151</v>
       </c>
       <c r="C260" t="n">
-        <v>83.11101018212494</v>
+        <v>72.63797773628035</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.05431593522274625</v>
+        <v>-0.05203911650883697</v>
       </c>
     </row>
     <row r="261">
@@ -4081,13 +4081,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>83.07343401634729</v>
+        <v>72.58786893394127</v>
       </c>
       <c r="C261" t="n">
-        <v>83.12362314563772</v>
+        <v>72.60420781857223</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.0501891292904304</v>
+        <v>-0.01633888463096866</v>
       </c>
     </row>
     <row r="262">
@@ -4095,13 +4095,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>83.08966723217661</v>
+        <v>72.93566769342809</v>
       </c>
       <c r="C262" t="n">
-        <v>83.14288013967787</v>
+        <v>73.08149146791945</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.05321290750126195</v>
+        <v>-0.1458237744913617</v>
       </c>
     </row>
     <row r="263">
@@ -4109,13 +4109,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>83.11627531972019</v>
+        <v>72.95657813010286</v>
       </c>
       <c r="C263" t="n">
-        <v>83.21850042751763</v>
+        <v>72.98989460574845</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.1022251077974374</v>
+        <v>-0.03331647564559148</v>
       </c>
     </row>
     <row r="264">
@@ -4123,13 +4123,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>83.13869858421143</v>
+        <v>72.9565822544641</v>
       </c>
       <c r="C264" t="n">
-        <v>83.19025689821243</v>
+        <v>72.96776460517071</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.05155831400099942</v>
+        <v>-0.0111823507066191</v>
       </c>
     </row>
     <row r="265">
@@ -4137,13 +4137,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>83.14345397718773</v>
+        <v>72.97501644923719</v>
       </c>
       <c r="C265" t="n">
-        <v>83.20248970720932</v>
+        <v>73.11325530480444</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.05903573002159135</v>
+        <v>-0.138238855567252</v>
       </c>
     </row>
     <row r="266">
@@ -4151,13 +4151,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>83.16075732708012</v>
+        <v>73.01297141967521</v>
       </c>
       <c r="C266" t="n">
-        <v>83.21879495880818</v>
+        <v>73.04256436540635</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.05803763172805532</v>
+        <v>-0.0295929457311388</v>
       </c>
     </row>
     <row r="267">
@@ -4165,13 +4165,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>83.18535866819147</v>
+        <v>73.02566321608684</v>
       </c>
       <c r="C267" t="n">
-        <v>83.3613172642592</v>
+        <v>73.066119489217</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.1759585960677299</v>
+        <v>-0.04045627313016098</v>
       </c>
     </row>
     <row r="268">
@@ -4179,13 +4179,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>83.22973273509326</v>
+        <v>73.03349395309435</v>
       </c>
       <c r="C268" t="n">
-        <v>83.27747807466919</v>
+        <v>73.08380449464897</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.04774533957592553</v>
+        <v>-0.050310541554623</v>
       </c>
     </row>
     <row r="269">
@@ -4193,13 +4193,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>83.23124547866448</v>
+        <v>73.04391639275427</v>
       </c>
       <c r="C269" t="n">
-        <v>83.2842639559702</v>
+        <v>73.05792633670781</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.05301847730572717</v>
+        <v>-0.01400994395353905</v>
       </c>
     </row>
     <row r="270">
@@ -4207,13 +4207,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>83.24810900730566</v>
+        <v>73.0558495212035</v>
       </c>
       <c r="C270" t="n">
-        <v>83.26344571684672</v>
+        <v>73.07706874127317</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.01533670954106015</v>
+        <v>-0.0212192200696677</v>
       </c>
     </row>
     <row r="271">
@@ -4221,13 +4221,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>83.28385812522946</v>
+        <v>73.05607135907785</v>
       </c>
       <c r="C271" t="n">
-        <v>83.34479611484369</v>
+        <v>73.05964212028591</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.06093798961423147</v>
+        <v>-0.003570761208067097</v>
       </c>
     </row>
     <row r="272">
@@ -4235,13 +4235,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>83.28406643858753</v>
+        <v>73.06282090142881</v>
       </c>
       <c r="C272" t="n">
-        <v>83.38030890061425</v>
+        <v>73.0673769857499</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.09624246202672282</v>
+        <v>-0.004556084321095</v>
       </c>
     </row>
     <row r="273">
@@ -4249,13 +4249,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>83.29535756421534</v>
+        <v>73.06838145081315</v>
       </c>
       <c r="C273" t="n">
-        <v>83.16693820125518</v>
+        <v>73.07423492413761</v>
       </c>
       <c r="D273" t="n">
-        <v>0.1284193629601589</v>
+        <v>-0.005853473324464176</v>
       </c>
     </row>
     <row r="274">
@@ -4263,13 +4263,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>83.3211684899892</v>
+        <v>75.2312231940767</v>
       </c>
       <c r="C274" t="n">
-        <v>83.38640220509988</v>
+        <v>75.37269763322492</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.06523371511067921</v>
+        <v>-0.1414744391482117</v>
       </c>
     </row>
     <row r="275">
@@ -4277,13 +4277,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>83.33128488251685</v>
+        <v>75.25576092658143</v>
       </c>
       <c r="C275" t="n">
-        <v>83.37343241863211</v>
+        <v>75.27110759962125</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.04214753611525168</v>
+        <v>-0.01534667303981507</v>
       </c>
     </row>
     <row r="276">
@@ -4291,13 +4291,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>83.69996198547119</v>
+        <v>75.25771996117085</v>
       </c>
       <c r="C276" t="n">
-        <v>83.86050401544132</v>
+        <v>75.30552877686527</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.1605420299701308</v>
+        <v>-0.04780881569442386</v>
       </c>
     </row>
     <row r="277">
@@ -4305,13 +4305,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>83.70629805692576</v>
+        <v>75.25978202436305</v>
       </c>
       <c r="C277" t="n">
-        <v>83.78789924485851</v>
+        <v>75.3379254031051</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.08160118793274762</v>
+        <v>-0.07814337874205535</v>
       </c>
     </row>
     <row r="278">
@@ -4319,13 +4319,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>83.70975213020732</v>
+        <v>75.26214752413728</v>
       </c>
       <c r="C278" t="n">
-        <v>83.87199971740466</v>
+        <v>75.38494484122792</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.1622475871973421</v>
+        <v>-0.1227973170906438</v>
       </c>
     </row>
     <row r="279">
@@ -4333,13 +4333,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>83.75274195407312</v>
+        <v>75.26676056888836</v>
       </c>
       <c r="C279" t="n">
-        <v>83.8767756492244</v>
+        <v>75.38876960089492</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.124033695151283</v>
+        <v>-0.1220090320065594</v>
       </c>
     </row>
     <row r="280">
@@ -4347,13 +4347,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>83.77871817216869</v>
+        <v>75.27675836974414</v>
       </c>
       <c r="C280" t="n">
-        <v>83.78954807438248</v>
+        <v>75.30352332909808</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.01082990221378566</v>
+        <v>-0.0267649593539403</v>
       </c>
     </row>
     <row r="281">
@@ -4361,13 +4361,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>83.80402033155104</v>
+        <v>75.27802637213172</v>
       </c>
       <c r="C281" t="n">
-        <v>83.81359922454354</v>
+        <v>75.30238218851444</v>
       </c>
       <c r="D281" t="n">
-        <v>-0.009578892992493593</v>
+        <v>-0.02435581638272311</v>
       </c>
     </row>
     <row r="282">
@@ -4375,13 +4375,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>83.80640735383754</v>
+        <v>75.28306535474286</v>
       </c>
       <c r="C282" t="n">
-        <v>83.8844471518607</v>
+        <v>75.31500595846404</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.07803979802315553</v>
+        <v>-0.03194060372118201</v>
       </c>
     </row>
     <row r="283">
@@ -4389,13 +4389,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>83.80939852480157</v>
+        <v>75.29051328526779</v>
       </c>
       <c r="C283" t="n">
-        <v>83.91119499212029</v>
+        <v>75.38700103432215</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.1017964673187208</v>
+        <v>-0.09648774905436142</v>
       </c>
     </row>
     <row r="284">
@@ -4403,13 +4403,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>83.81614993222158</v>
+        <v>75.3459736458688</v>
       </c>
       <c r="C284" t="n">
-        <v>83.81910972224726</v>
+        <v>75.3669157180166</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.002959790025684583</v>
+        <v>-0.02094207214780397</v>
       </c>
     </row>
     <row r="285">
@@ -4417,13 +4417,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>83.86120761565401</v>
+        <v>75.34822457842898</v>
       </c>
       <c r="C285" t="n">
-        <v>83.88224893891135</v>
+        <v>75.37323190967035</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.02104132325733588</v>
+        <v>-0.025007331241369</v>
       </c>
     </row>
     <row r="286">
@@ -4431,13 +4431,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>83.97205261763747</v>
+        <v>75.38470534215897</v>
       </c>
       <c r="C286" t="n">
-        <v>84.08131957340461</v>
+        <v>75.34122572049311</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.10926695576714</v>
+        <v>0.04347962166585262</v>
       </c>
     </row>
     <row r="287">
@@ -4445,13 +4445,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>83.9805239691914</v>
+        <v>78.17418178814719</v>
       </c>
       <c r="C287" t="n">
-        <v>84.14306118176879</v>
+        <v>78.20489488729721</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.1625372125773907</v>
+        <v>-0.03071309915002018</v>
       </c>
     </row>
     <row r="288">
@@ -4459,13 +4459,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>83.98141493475619</v>
+        <v>78.18475336978214</v>
       </c>
       <c r="C288" t="n">
-        <v>84.03766269491507</v>
+        <v>78.27535921264618</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.05624776015888244</v>
+        <v>-0.09060584286403639</v>
       </c>
     </row>
     <row r="289">
@@ -4473,13 +4473,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>83.98572091143953</v>
+        <v>78.20291173745026</v>
       </c>
       <c r="C289" t="n">
-        <v>84.10280079860414</v>
+        <v>78.29435268469129</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.117079887164607</v>
+        <v>-0.09144094724102558</v>
       </c>
     </row>
     <row r="290">
@@ -4487,13 +4487,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>83.98989732952805</v>
+        <v>78.21357605344816</v>
       </c>
       <c r="C290" t="n">
-        <v>84.11292747483616</v>
+        <v>78.23713879121524</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.1230301453081069</v>
+        <v>-0.02356273776707951</v>
       </c>
     </row>
     <row r="291">
@@ -4501,13 +4501,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>84.00972033445811</v>
+        <v>78.21702231275825</v>
       </c>
       <c r="C291" t="n">
-        <v>84.0917385080153</v>
+        <v>78.24370185028113</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.08201817355718788</v>
+        <v>-0.02667953752288099</v>
       </c>
     </row>
     <row r="292">
@@ -4515,13 +4515,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>84.01845410669782</v>
+        <v>78.21746845396632</v>
       </c>
       <c r="C292" t="n">
-        <v>84.13995576950947</v>
+        <v>78.23415613351484</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.121501662811653</v>
+        <v>-0.01668767954852513</v>
       </c>
     </row>
     <row r="293">
@@ -4529,13 +4529,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>84.03710671851539</v>
+        <v>78.23233325281045</v>
       </c>
       <c r="C293" t="n">
-        <v>84.16430513552903</v>
+        <v>78.24410622580055</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.1271984170136449</v>
+        <v>-0.01177297299010149</v>
       </c>
     </row>
     <row r="294">
@@ -4543,13 +4543,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>84.03833884817665</v>
+        <v>78.24117166921502</v>
       </c>
       <c r="C294" t="n">
-        <v>84.13378791531177</v>
+        <v>78.30828769366629</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.09544906713512091</v>
+        <v>-0.0671160244512663</v>
       </c>
     </row>
     <row r="295">
@@ -4557,13 +4557,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>84.04645017828324</v>
+        <v>78.24141616768419</v>
       </c>
       <c r="C295" t="n">
-        <v>84.14720331764367</v>
+        <v>78.25200551230992</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.1007531393604353</v>
+        <v>-0.01058934462572836</v>
       </c>
     </row>
     <row r="296">
@@ -4571,13 +4571,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>84.05466643341998</v>
+        <v>78.25725141509359</v>
       </c>
       <c r="C296" t="n">
-        <v>84.08493190218381</v>
+        <v>78.27415533895456</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.03026546876382952</v>
+        <v>-0.01690392386096562</v>
       </c>
     </row>
     <row r="297">
@@ -4585,13 +4585,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>84.06361826722812</v>
+        <v>78.29546518141368</v>
       </c>
       <c r="C297" t="n">
-        <v>84.10557515216972</v>
+        <v>78.30487658916681</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.0419568849415981</v>
+        <v>-0.009411407753134426</v>
       </c>
     </row>
     <row r="298">
@@ -4599,13 +4599,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>84.06628589388843</v>
+        <v>78.52178179683762</v>
       </c>
       <c r="C298" t="n">
-        <v>84.09541498052647</v>
+        <v>78.67817353267593</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.02912908663803648</v>
+        <v>-0.1563917358383122</v>
       </c>
     </row>
     <row r="299">
@@ -4613,13 +4613,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>84.07608235604525</v>
+        <v>78.54583745225551</v>
       </c>
       <c r="C299" t="n">
-        <v>84.18025214687637</v>
+        <v>78.61719484694767</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.1041697908311221</v>
+        <v>-0.07135739469215707</v>
       </c>
     </row>
     <row r="300">
@@ -4627,13 +4627,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>86.43292334848405</v>
+        <v>78.54812379987527</v>
       </c>
       <c r="C300" t="n">
-        <v>86.49586671226579</v>
+        <v>78.5635730909172</v>
       </c>
       <c r="D300" t="n">
-        <v>-0.06294336378174137</v>
+        <v>-0.01544929104193216</v>
       </c>
     </row>
     <row r="301">
@@ -4641,13 +4641,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>86.43435883905757</v>
+        <v>78.56044213043906</v>
       </c>
       <c r="C301" t="n">
-        <v>86.50578369588091</v>
+        <v>78.64188706946638</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.07142485682334154</v>
+        <v>-0.08144493902732108</v>
       </c>
     </row>
     <row r="302">
@@ -4655,13 +4655,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>86.44017175025351</v>
+        <v>78.56411051032285</v>
       </c>
       <c r="C302" t="n">
-        <v>86.51972807464982</v>
+        <v>78.64741955812907</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.07955632439630733</v>
+        <v>-0.08330904780622461</v>
       </c>
     </row>
     <row r="303">
@@ -4669,13 +4669,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>86.47584067100603</v>
+        <v>78.58314574687934</v>
       </c>
       <c r="C303" t="n">
-        <v>86.52309256294508</v>
+        <v>78.6467659335984</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.04725189193905521</v>
+        <v>-0.06362018671906355</v>
       </c>
     </row>
     <row r="304">
@@ -4683,13 +4683,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>86.48772735944432</v>
+        <v>78.59929368545198</v>
       </c>
       <c r="C304" t="n">
-        <v>86.55695894825982</v>
+        <v>78.62013867667066</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.06923158881549796</v>
+        <v>-0.02084499121868078</v>
       </c>
     </row>
     <row r="305">
@@ -4697,13 +4697,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>86.49430189131117</v>
+        <v>78.60360553774709</v>
       </c>
       <c r="C305" t="n">
-        <v>86.51770295748446</v>
+        <v>78.64698691828288</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.02340106617329241</v>
+        <v>-0.04338138053579144</v>
       </c>
     </row>
     <row r="306">
@@ -4711,13 +4711,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>86.51056295852779</v>
+        <v>78.61311290985873</v>
       </c>
       <c r="C306" t="n">
-        <v>86.52479239274578</v>
+        <v>78.64764184050142</v>
       </c>
       <c r="D306" t="n">
-        <v>-0.01422943421799516</v>
+        <v>-0.03452893064269347</v>
       </c>
     </row>
     <row r="307">
@@ -4725,13 +4725,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>86.52311812352275</v>
+        <v>78.6170410228569</v>
       </c>
       <c r="C307" t="n">
-        <v>86.60555944771694</v>
+        <v>78.63713982475052</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.08244132419419259</v>
+        <v>-0.02009880189362434</v>
       </c>
     </row>
     <row r="308">
@@ -4739,13 +4739,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>86.56539854158555</v>
+        <v>78.63201203432206</v>
       </c>
       <c r="C308" t="n">
-        <v>86.59280607505548</v>
+        <v>78.65854194303566</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.02740753346992619</v>
+        <v>-0.02652990871359862</v>
       </c>
     </row>
     <row r="309">
@@ -4753,13 +4753,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>86.57779960787425</v>
+        <v>78.63367206215349</v>
       </c>
       <c r="C309" t="n">
-        <v>86.58328366804335</v>
+        <v>78.651250327074</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.005484060169095528</v>
+        <v>-0.01757826492050185</v>
       </c>
     </row>
     <row r="310">
@@ -4767,13 +4767,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>86.64139339314093</v>
+        <v>78.66553763653616</v>
       </c>
       <c r="C310" t="n">
-        <v>86.53615768534928</v>
+        <v>78.68307250400899</v>
       </c>
       <c r="D310" t="n">
-        <v>0.1052357077916497</v>
+        <v>-0.01753486747283262</v>
       </c>
     </row>
     <row r="311">
@@ -4781,13 +4781,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>86.67108462457395</v>
+        <v>79.7130212459839</v>
       </c>
       <c r="C311" t="n">
-        <v>86.71652983234893</v>
+        <v>79.7893804941292</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.04544520777497496</v>
+        <v>-0.07635924814530881</v>
       </c>
     </row>
     <row r="312">
@@ -4795,13 +4795,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>86.69655363599729</v>
+        <v>79.71649729472168</v>
       </c>
       <c r="C312" t="n">
-        <v>86.63639271072714</v>
+        <v>79.73743513677766</v>
       </c>
       <c r="D312" t="n">
-        <v>0.0601609252701536</v>
+        <v>-0.02093784205598581</v>
       </c>
     </row>
     <row r="313">
@@ -4809,13 +4809,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>86.70668890011478</v>
+        <v>79.72355933701955</v>
       </c>
       <c r="C313" t="n">
-        <v>86.75585437029977</v>
+        <v>79.74008002461869</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.04916547018498818</v>
+        <v>-0.01652068759914016</v>
       </c>
     </row>
     <row r="314">
@@ -4823,13 +4823,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>86.71391453352059</v>
+        <v>79.73853709660604</v>
       </c>
       <c r="C314" t="n">
-        <v>86.79167900524372</v>
+        <v>79.77381928636387</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.07776447172312828</v>
+        <v>-0.03528218975783659</v>
       </c>
     </row>
     <row r="315">
@@ -4837,13 +4837,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>86.7363738947043</v>
+        <v>79.74241246949428</v>
       </c>
       <c r="C315" t="n">
-        <v>86.7507632420337</v>
+        <v>79.8045004127941</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.01438934732939856</v>
+        <v>-0.06208794329981515</v>
       </c>
     </row>
     <row r="316">
@@ -4851,13 +4851,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>86.76617184783262</v>
+        <v>79.75352066958335</v>
       </c>
       <c r="C316" t="n">
-        <v>86.80702086877474</v>
+        <v>79.82740400269796</v>
       </c>
       <c r="D316" t="n">
-        <v>-0.04084902094211884</v>
+        <v>-0.07388333311460826</v>
       </c>
     </row>
     <row r="317">
@@ -4865,13 +4865,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>86.77937072451081</v>
+        <v>79.77429458860664</v>
       </c>
       <c r="C317" t="n">
-        <v>86.79592570849604</v>
+        <v>79.79102840831094</v>
       </c>
       <c r="D317" t="n">
-        <v>-0.01655498398523036</v>
+        <v>-0.01673381970429944</v>
       </c>
     </row>
     <row r="318">
@@ -4879,13 +4879,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>86.78852554027389</v>
+        <v>79.78085062006024</v>
       </c>
       <c r="C318" t="n">
-        <v>86.83138017167056</v>
+        <v>79.82756885894672</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.0428546313966649</v>
+        <v>-0.04671823888648419</v>
       </c>
     </row>
     <row r="319">
@@ -4893,13 +4893,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>86.9936752030418</v>
+        <v>79.7949322197898</v>
       </c>
       <c r="C319" t="n">
-        <v>86.60853488620381</v>
+        <v>79.80167449792718</v>
       </c>
       <c r="D319" t="n">
-        <v>0.3851403168379903</v>
+        <v>-0.006742278137380708</v>
       </c>
     </row>
     <row r="320">
@@ -4907,13 +4907,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>91.87276354196145</v>
+        <v>79.80416042385249</v>
       </c>
       <c r="C320" t="n">
-        <v>92.01421458889834</v>
+        <v>79.83097992596011</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.1414510469368935</v>
+        <v>-0.02681950210761386</v>
       </c>
     </row>
     <row r="321">
@@ -4921,13 +4921,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>91.88075447244296</v>
+        <v>79.80473470598035</v>
       </c>
       <c r="C321" t="n">
-        <v>91.90369834835414</v>
+        <v>79.83336081864792</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.02294387591118152</v>
+        <v>-0.02862611266756687</v>
       </c>
     </row>
     <row r="322">
@@ -4935,13 +4935,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>91.88823733740783</v>
+        <v>79.97108860610848</v>
       </c>
       <c r="C322" t="n">
-        <v>91.99807950743305</v>
+        <v>79.82828449499503</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.1098421700252175</v>
+        <v>0.142804111113449</v>
       </c>
     </row>
     <row r="323">
@@ -4949,13 +4949,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>91.93741823959488</v>
+        <v>94.29468968903915</v>
       </c>
       <c r="C323" t="n">
-        <v>92.0461966615503</v>
+        <v>94.32136088935987</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.1087784219554209</v>
+        <v>-0.02667120032072035</v>
       </c>
     </row>
     <row r="324">
@@ -4963,13 +4963,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>91.94221823716899</v>
+        <v>94.30838425341817</v>
       </c>
       <c r="C324" t="n">
-        <v>92.02415003972449</v>
+        <v>94.44937001899757</v>
       </c>
       <c r="D324" t="n">
-        <v>-0.08193180255550203</v>
+        <v>-0.1409857655794013</v>
       </c>
     </row>
     <row r="325">
@@ -4977,13 +4977,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>91.95436229003619</v>
+        <v>94.31793496445691</v>
       </c>
       <c r="C325" t="n">
-        <v>92.02730659432864</v>
+        <v>94.38249390907352</v>
       </c>
       <c r="D325" t="n">
-        <v>-0.07294430429244869</v>
+        <v>-0.06455894461660705</v>
       </c>
     </row>
     <row r="326">
@@ -4991,13 +4991,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>91.96445116459374</v>
+        <v>94.32359418388847</v>
       </c>
       <c r="C326" t="n">
-        <v>92.00981544377093</v>
+        <v>94.38514489298069</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.04536427917719266</v>
+        <v>-0.06155070909221649</v>
       </c>
     </row>
     <row r="327">
@@ -5005,13 +5005,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>92.03078462413654</v>
+        <v>94.3296471771412</v>
       </c>
       <c r="C327" t="n">
-        <v>92.03217365220009</v>
+        <v>94.38040378453414</v>
       </c>
       <c r="D327" t="n">
-        <v>-0.001389028063542241</v>
+        <v>-0.05075660739294108</v>
       </c>
     </row>
     <row r="328">
@@ -5019,13 +5019,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>92.05113385580178</v>
+        <v>94.32975067396387</v>
       </c>
       <c r="C328" t="n">
-        <v>92.06038926950737</v>
+        <v>94.35711362381494</v>
       </c>
       <c r="D328" t="n">
-        <v>-0.009255413705588467</v>
+        <v>-0.02736294985106724</v>
       </c>
     </row>
     <row r="329">
@@ -5033,13 +5033,685 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>92.06082012405192</v>
+        <v>94.34852273764618</v>
       </c>
       <c r="C329" t="n">
-        <v>92.07489727394903</v>
+        <v>94.39924586205655</v>
       </c>
       <c r="D329" t="n">
-        <v>-0.01407714989711906</v>
+        <v>-0.05072312441036786</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>94.36103423144095</v>
+      </c>
+      <c r="C330" t="n">
+        <v>94.44694539946624</v>
+      </c>
+      <c r="D330" t="n">
+        <v>-0.08591116802529086</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>94.36442919805286</v>
+      </c>
+      <c r="C331" t="n">
+        <v>94.42559165802938</v>
+      </c>
+      <c r="D331" t="n">
+        <v>-0.06116245997651504</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>94.37247142593735</v>
+      </c>
+      <c r="C332" t="n">
+        <v>94.37470162371341</v>
+      </c>
+      <c r="D332" t="n">
+        <v>-0.002230197776057707</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>94.37966977976974</v>
+      </c>
+      <c r="C333" t="n">
+        <v>94.41850173388121</v>
+      </c>
+      <c r="D333" t="n">
+        <v>-0.03883195411147256</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>94.39505106379974</v>
+      </c>
+      <c r="C334" t="n">
+        <v>94.43852807367797</v>
+      </c>
+      <c r="D334" t="n">
+        <v>-0.04347700987823089</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>94.42894286999227</v>
+      </c>
+      <c r="C335" t="n">
+        <v>94.45145653619464</v>
+      </c>
+      <c r="D335" t="n">
+        <v>-0.0225136662023715</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>94.46958912990458</v>
+      </c>
+      <c r="C336" t="n">
+        <v>94.60825052399197</v>
+      </c>
+      <c r="D336" t="n">
+        <v>-0.1386613940873929</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>94.47171610910208</v>
+      </c>
+      <c r="C337" t="n">
+        <v>94.53854442815326</v>
+      </c>
+      <c r="D337" t="n">
+        <v>-0.06682831905118292</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>94.49673697043214</v>
+      </c>
+      <c r="C338" t="n">
+        <v>94.59438968490454</v>
+      </c>
+      <c r="D338" t="n">
+        <v>-0.09765271447240309</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>94.5047437313906</v>
+      </c>
+      <c r="C339" t="n">
+        <v>94.51621473612849</v>
+      </c>
+      <c r="D339" t="n">
+        <v>-0.01147100473788498</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>94.51002149754915</v>
+      </c>
+      <c r="C340" t="n">
+        <v>94.55974422595349</v>
+      </c>
+      <c r="D340" t="n">
+        <v>-0.04972272840434755</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>94.54867596710622</v>
+      </c>
+      <c r="C341" t="n">
+        <v>94.56708217333508</v>
+      </c>
+      <c r="D341" t="n">
+        <v>-0.01840620622886036</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>94.56000537715764</v>
+      </c>
+      <c r="C342" t="n">
+        <v>94.57141583345123</v>
+      </c>
+      <c r="D342" t="n">
+        <v>-0.01141045629358928</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>94.5667202279393</v>
+      </c>
+      <c r="C343" t="n">
+        <v>94.56762531266098</v>
+      </c>
+      <c r="D343" t="n">
+        <v>-0.0009050847216798275</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>94.5714615216464</v>
+      </c>
+      <c r="C344" t="n">
+        <v>94.58325223414495</v>
+      </c>
+      <c r="D344" t="n">
+        <v>-0.01179071249855212</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>94.58400135795851</v>
+      </c>
+      <c r="C345" t="n">
+        <v>94.58405466535868</v>
+      </c>
+      <c r="D345" t="n">
+        <v>-5.330740016518121e-05</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>94.9026345055924</v>
+      </c>
+      <c r="C346" t="n">
+        <v>94.90878523241317</v>
+      </c>
+      <c r="D346" t="n">
+        <v>-0.006150726820763452</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>94.90522251696476</v>
+      </c>
+      <c r="C347" t="n">
+        <v>94.92863288758866</v>
+      </c>
+      <c r="D347" t="n">
+        <v>-0.02341037062390683</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>94.90888666996882</v>
+      </c>
+      <c r="C348" t="n">
+        <v>94.91757281018101</v>
+      </c>
+      <c r="D348" t="n">
+        <v>-0.008686140212191162</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>94.94585124571711</v>
+      </c>
+      <c r="C349" t="n">
+        <v>95.03268385214932</v>
+      </c>
+      <c r="D349" t="n">
+        <v>-0.08683260643221047</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>94.98086009614342</v>
+      </c>
+      <c r="C350" t="n">
+        <v>95.04110173362302</v>
+      </c>
+      <c r="D350" t="n">
+        <v>-0.06024163747960642</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>94.98421570419988</v>
+      </c>
+      <c r="C351" t="n">
+        <v>94.99299352542448</v>
+      </c>
+      <c r="D351" t="n">
+        <v>-0.008777821224597915</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>95.01745169249664</v>
+      </c>
+      <c r="C352" t="n">
+        <v>95.03030769238518</v>
+      </c>
+      <c r="D352" t="n">
+        <v>-0.01285599988854358</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>95.01755374451145</v>
+      </c>
+      <c r="C353" t="n">
+        <v>95.03831120099126</v>
+      </c>
+      <c r="D353" t="n">
+        <v>-0.02075745647981364</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>95.03865224338803</v>
+      </c>
+      <c r="C354" t="n">
+        <v>95.05011517125662</v>
+      </c>
+      <c r="D354" t="n">
+        <v>-0.01146292786859249</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>98.5487683354377</v>
+      </c>
+      <c r="C355" t="n">
+        <v>98.63398129373567</v>
+      </c>
+      <c r="D355" t="n">
+        <v>-0.08521295829797282</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>98.56024083359131</v>
+      </c>
+      <c r="C356" t="n">
+        <v>98.66248219652216</v>
+      </c>
+      <c r="D356" t="n">
+        <v>-0.1022413629308545</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>98.56368709372947</v>
+      </c>
+      <c r="C357" t="n">
+        <v>98.65345201135999</v>
+      </c>
+      <c r="D357" t="n">
+        <v>-0.08976491763051797</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>98.56442808245032</v>
+      </c>
+      <c r="C358" t="n">
+        <v>98.61859635771133</v>
+      </c>
+      <c r="D358" t="n">
+        <v>-0.05416827526100576</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>98.57328287825757</v>
+      </c>
+      <c r="C359" t="n">
+        <v>98.5960569925635</v>
+      </c>
+      <c r="D359" t="n">
+        <v>-0.0227741143059319</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>98.57962811269283</v>
+      </c>
+      <c r="C360" t="n">
+        <v>98.59686532998094</v>
+      </c>
+      <c r="D360" t="n">
+        <v>-0.01723721728811256</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>98.58123591599718</v>
+      </c>
+      <c r="C361" t="n">
+        <v>98.64188616725278</v>
+      </c>
+      <c r="D361" t="n">
+        <v>-0.06065025125559487</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>98.5893640025683</v>
+      </c>
+      <c r="C362" t="n">
+        <v>98.64634761246727</v>
+      </c>
+      <c r="D362" t="n">
+        <v>-0.056983609898964</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>98.59059620128944</v>
+      </c>
+      <c r="C363" t="n">
+        <v>98.62790831470527</v>
+      </c>
+      <c r="D363" t="n">
+        <v>-0.03731211341582252</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>98.59572234063758</v>
+      </c>
+      <c r="C364" t="n">
+        <v>98.64012101461184</v>
+      </c>
+      <c r="D364" t="n">
+        <v>-0.04439867397425701</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>98.62498698566321</v>
+      </c>
+      <c r="C365" t="n">
+        <v>98.66791207671803</v>
+      </c>
+      <c r="D365" t="n">
+        <v>-0.04292509105481201</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>98.63565951947744</v>
+      </c>
+      <c r="C366" t="n">
+        <v>98.66185452521832</v>
+      </c>
+      <c r="D366" t="n">
+        <v>-0.02619500574087397</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>98.65467669076455</v>
+      </c>
+      <c r="C367" t="n">
+        <v>98.6612311015363</v>
+      </c>
+      <c r="D367" t="n">
+        <v>-0.00655441077175567</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>98.74487189397809</v>
+      </c>
+      <c r="C368" t="n">
+        <v>98.59350660412004</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0.1513652898580489</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>98.99359252344701</v>
+      </c>
+      <c r="C369" t="n">
+        <v>98.6070023795176</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0.3865901439294106</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>99.10799546680687</v>
+      </c>
+      <c r="C370" t="n">
+        <v>99.1813697222042</v>
+      </c>
+      <c r="D370" t="n">
+        <v>-0.07337425539732578</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>99.12887522811054</v>
+      </c>
+      <c r="C371" t="n">
+        <v>99.20559435748258</v>
+      </c>
+      <c r="D371" t="n">
+        <v>-0.07671912937203729</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>99.13307487236618</v>
+      </c>
+      <c r="C372" t="n">
+        <v>99.19856700654867</v>
+      </c>
+      <c r="D372" t="n">
+        <v>-0.06549213418249167</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>99.13315887485504</v>
+      </c>
+      <c r="C373" t="n">
+        <v>99.21116576740241</v>
+      </c>
+      <c r="D373" t="n">
+        <v>-0.07800689254736426</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>99.15307794941631</v>
+      </c>
+      <c r="C374" t="n">
+        <v>99.22877150614374</v>
+      </c>
+      <c r="D374" t="n">
+        <v>-0.07569355672742972</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>99.15902696355886</v>
+      </c>
+      <c r="C375" t="n">
+        <v>99.22695286783818</v>
+      </c>
+      <c r="D375" t="n">
+        <v>-0.06792590427932055</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>99.20208303767539</v>
+      </c>
+      <c r="C376" t="n">
+        <v>99.22614492188242</v>
+      </c>
+      <c r="D376" t="n">
+        <v>-0.02406188420702904</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>99.23171059013568</v>
+      </c>
+      <c r="C377" t="n">
+        <v>99.25638306465979</v>
+      </c>
+      <c r="D377" t="n">
+        <v>-0.02467247452410959</v>
       </c>
     </row>
   </sheetData>
